--- a/translations/census_household_translate_welsh.xlsx
+++ b/translations/census_household_translate_welsh.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/dev/ONSdigital/eq-survey-runner-clean/translations/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="1078">
   <si>
     <t>Context</t>
   </si>
@@ -2497,9 +2510,6 @@
     <t>A yw aelod neu aelodau o'ch cartref yn berchen ar y cartref hwn neu'n ei rentu?</t>
   </si>
   <si>
-    <t>&lt;p&gt;Ystyr 'yn berchen arno'n gyfan gwbl' yw eich bod yn berchen ar eich cartref heb forgais na benthyciad, hyd yn oed os ydych yn talu swm bach o arian i'r benthyciwr er mwyn iddo ofalu am y gweithredoedd.&lt;p&gt;&lt;p&gt;Ystyr 'Yn berchen arno’n rhannol ac yn ei rentu’n rhannol' yw eich bod yn berchen ar ran o'ch llety a hefyd yn talu rhent am ran ohono. Gallwch fod yn berchen ar eich cartref yn rhannol gyda morgais neu fenthyciad neu heb hynny.&lt;p&gt;&lt;p&gt;Os caiff eich rhent ei dalu gyda chymorth budd-dal tai, dewiswch 'Yn ei rentu (gyda chymorth budd-dal tai neu hebddo)'.&lt;p&gt;&lt;p&gt;Os nad ydych yn talu rhent, ond yn cyfrannu at gostau'r cartref, rydych yn byw heb dalu rhent.&lt;p&gt;</t>
-  </si>
-  <si>
     <t>Yn berchen arno’n gyfan gwbl</t>
   </si>
   <si>
@@ -2611,9 +2621,6 @@
     <t>Sut byddech chi’n disgrifio’ch hunaniaeth genedlaethol?</t>
   </si>
   <si>
-    <t>&lt;p&gt;Gallwch ddewis mwy nag un hunaniaeth genedlaethol.&lt;p&gt;&lt;p&gt;Chi sy'n penderfynu sut i ddewis eich hunaniaeth genedlaethol neu hunaniaethau cenedlaethol. Er enghraifft, gallai ymwneud â'r wlad neu'r gwledydd rydych yn teimlo eich bod yn perthyn iddi neu iddynt, neu'n ei hystyried neu'n eu hystyried yn gartref.&lt;p&gt;&lt;p&gt;Nid yw'n ddibynnol ar eich grŵp ethnig na'ch cenedligrwydd cyfreithiol (dinasyddiaeth).&lt;p&gt;&lt;p&gt;Dewiswch bob un sy'n berthnasol. Os nad yw eich hunaniaeth genedlaethol ar y rhestr, dewiswch 'Arall' a nodwch eich hunaniaeth genedlaethol.&lt;p&gt;</t>
-  </si>
-  <si>
     <t>Cymro/Cymraes</t>
   </si>
   <si>
@@ -2668,9 +2675,6 @@
     <t>Ar 9 Ebrill 2017, beth, yn gyfreithiol, yw’ch statws priodasol neu statws eich partneriaeth sifil o’r un rhyw?</t>
   </si>
   <si>
-    <t>&lt;p&gt;Atebwch yn ôl eich statws ar 9 Ebrill 2017.&lt;p&gt;&lt;p&gt;Atebwch y cwestiwn hwn ar gyfer plant, er nad ydynt efallai yn ddigon hen i briodi nac i ffurfio partneriaeth sifil o'r un rhyw.&lt;p&gt;&lt;p&gt;Os oeddech yn briod (neu wedi ffurfio partneriaeth gofrestredig o'r un rhyw) dramor, a bod hyn yn eich galluogi i gael eich cydnabod yn briod neu mewn partneriaeth sifil yn y Deyrnas Unedig, atebwch y cwestiwn gan adlewyrchu'r bartneriaeth gyfreithiol honno.&lt;p&gt;</t>
-  </si>
-  <si>
     <t>Erioed wedi priodi na chofrestru partneriaeth sifil o’r un rhyw</t>
   </si>
   <si>
@@ -2713,9 +2717,6 @@
     <t>Ddim yn gweithio i sefydliad na busnes</t>
   </si>
   <si>
-    <t>&lt;p&gt;Os nad ydych yn gweithio atebwch y cwestiynau sy'n weddill am eich prif swydd ddiwethaf.&lt;p&gt;&lt;p&gt;Eich prif swydd yw’r swydd yr ydych (oeddech) fel arfer yn gweithio’r nifer fwyaf o oriau ynddi &lt;p&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">yn weithiwr cyflogedig? </t>
   </si>
   <si>
@@ -2743,9 +2744,6 @@
     <t>Nodwch fanylion eich cyfeiriad flwyddyn yn ôl</t>
   </si>
   <si>
-    <t>&lt;p&gt;Nodwch enwau cyntaf, enwau canol a chyfenwau presennol pawb sy'n byw yma fel arfer.&lt;p&gt;&lt;p&gt;Os nad ydych wedi enwi'ch baban newydd eto, nodwch 'Baban' fel ei enw cyntaf ac yna nodwch ei gyfenw.&lt;p&gt;&lt;p&gt;Dylech hefyd gynnwys aelodau o'r cartref sydd wedi gofyn am ffurflen bersonol.&lt;p&gt;&lt;p&gt;Hefyd nodwch enwau pobl sy'n aros gyda chi dros dro nad oes ganddynt gyfeiriad arferol yn y DU. Y rheswm dros hyn yw er mwyn sicrhau ein bod yn cyfrif pawb.&lt;p&gt;&lt;p&gt;Dylech gynnwys:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Pobl sydd fel arfer yn byw y tu allan i'r Deyrnas Unedig sy'n aros yma am dri mis neu fwy&lt;li&gt;&lt;li&gt;Pobl sy'n gweithio oddi cartref yn y Deyrnas Unedig os mai hwn yw eu cartref parhaol neu gartref y teulu&lt;li&gt;&lt;li&gt;Aelodau o'r Lluoedd Arfog os mai hwn yw eu cartref parhaol neu gartref y teulu&lt;li&gt;&lt;li&gt;Pobl sydd y tu allan i'r Deyrnas Unedig dros dro am lai na 12 mis&lt;li&gt;&lt;li&gt;Pobl sy'n aros dros dro sydd fel arfer yn byw yn y Deyrnas Unedig ond nad oes ganddynt gyfeiriad arall yn y Deyrnas Unedig, er enghraifft perthnasau, ffrindiau&lt;li&gt;&lt;li&gt;</t>
-  </si>
-  <si>
     <t>Beth yw eich prif iaith?</t>
   </si>
   <si>
@@ -2806,9 +2804,6 @@
     <t>Beth ydych (oeddech) chi’n ei wneud yn eich prif swydd.</t>
   </si>
   <si>
-    <t>&lt;p&gt;Rhowch ddisgrifiad byr o beth ydych (oeddech) chi'n ei wneud yn eich prif swydd. Eich prif swydd yw’r swydd yr ydych (oeddech) fel arfer yn gweithio’r nifer fwyaf o oriau ynddi.&lt;p&gt;&lt;p&gt;Rhowch y wybodaeth orau bosibl hyd yn oed os nad ydych yn siŵr o'r holl fanylion neu'n methu â'u cofio.&lt;p&gt;</t>
-  </si>
-  <si>
     <t>Disgrifiad</t>
   </si>
   <si>
@@ -2908,18 +2903,12 @@
     <t>&lt;h2 class='neptune'&gt;Mae eich cartref yn cynnwys:&lt;/h2&gt; {{ [answers.first_name, answers.middle_names, answers.last_name]|format_household_summary }}</t>
   </si>
   <si>
-    <t>Pobl sy’n byw y tu allan i’r Deyrnas Unedig fel arfer, ond sy’n aros yn y Deyrnas Unedig am &lt;b&gt;dri mis neu fwy&lt;b&gt;</t>
-  </si>
-  <si>
     <t>Pobl sy’n gweithio oddi cartref yn y Deyrnas Unedig os mai hwn yw eu cyfeiriad parhaol neu gyfeiriad y teulu</t>
   </si>
   <si>
     <t>Aelodau o’r Lluoedd Arfog os mai hwn yw eu cyfeiriad parhaol neu gyfeiriad y teulu</t>
   </si>
   <si>
-    <t>Pobl sydd y tu allan i’r Deyrnas Unedig dros dro am &lt;b&gt;lai na 12 mis&lt;b&gt;</t>
-  </si>
-  <si>
     <t>Pobl sy’n aros dros dro, sy’n byw yn y Deyrnas Unedig fel arfer, ond sydd heb gyfeiriad arall yn y Deyrnas Unedig, er enghraifft perthnasau, ffrindiau</t>
   </si>
   <si>
@@ -3034,9 +3023,6 @@
     <t>Os ydych (oeddech) yn was sifil, ysgrifennwch &lt;b&gt;llywodraeth&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Os ydych (oeddech) yn swyddog llywodraeth leol, ysgrifennwch swyddog llywodraeth leol, ysgrifennwch &lt;b&gt;llywodraeth leol&lt;b&gt; a rhowch enw'r adran o fewn yr awdurdod lleol </t>
-  </si>
-  <si>
     <t xml:space="preserve">Yn eich gweithle, beth yw (oedd) prif weithgarwch eich cyflogwr neu’ch busnes? </t>
   </si>
   <si>
@@ -3245,13 +3231,43 @@
   </si>
   <si>
     <t>Nodwch y math o gyfeiriad</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ystyr 'yn berchen arno'n gyfan gwbl' yw eich bod yn berchen ar eich cartref heb forgais na benthyciad, hyd yn oed os ydych yn talu swm bach o arian i'r benthyciwr er mwyn iddo ofalu am y gweithredoedd.&lt;/p&gt;&lt;p&gt;Ystyr 'Yn berchen arno’n rhannol ac yn ei rentu’n rhannol' yw eich bod yn berchen ar ran o'ch llety a hefyd yn talu rhent am ran ohono. Gallwch fod yn berchen ar eich cartref yn rhannol gyda morgais neu fenthyciad neu heb hynny.&lt;/p&gt;&lt;p&gt;Os caiff eich rhent ei dalu gyda chymorth budd-dal tai, dewiswch 'Yn ei rentu (gyda chymorth budd-dal tai neu hebddo)'.&lt;/p&gt;&lt;p&gt;Os nad ydych yn talu rhent, ond yn cyfrannu at gostau'r cartref, rydych yn byw heb dalu rhent.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gallwch ddewis mwy nag un hunaniaeth genedlaethol.&lt;p&gt;&lt;p&gt;Chi sy'n penderfynu sut i ddewis eich hunaniaeth genedlaethol neu hunaniaethau cenedlaethol. Er enghraifft, gallai ymwneud â'r wlad neu'r gwledydd rydych yn teimlo eich bod yn perthyn iddi neu iddynt, neu'n ei hystyried neu'n eu hystyried yn gartref.&lt;/p&gt;&lt;p&gt;Nid yw'n ddibynnol ar eich grŵp ethnig na'ch cenedligrwydd cyfreithiol (dinasyddiaeth).&lt;/p&gt;&lt;p&gt;Dewiswch bob un sy'n berthnasol. Os nad yw eich hunaniaeth genedlaethol ar y rhestr, dewiswch 'Arall' a nodwch eich hunaniaeth genedlaethol.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gallwch ddewis mwy nag un hunaniaeth genedlaethol.&lt;/p&gt;&lt;p&gt;Chi sy'n penderfynu sut i ddewis eich hunaniaeth genedlaethol neu hunaniaethau cenedlaethol. Er enghraifft, gallai ymwneud â'r wlad neu'r gwledydd rydych yn teimlo eich bod yn perthyn iddi neu iddynt, neu'n ei hystyried neu'n eu hystyried yn gartref.&lt;/p&gt;&lt;p&gt;Nid yw'n ddibynnol ar eich grŵp ethnig na'ch cenedligrwydd cyfreithiol (dinasyddiaeth).&lt;/p&gt;&lt;p&gt;Dewiswch bob un sy'n berthnasol. Os nad yw eich hunaniaeth genedlaethol ar y rhestr, dewiswch 'Arall' a nodwch eich hunaniaeth genedlaethol.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Atebwch yn ôl eich statws ar 9 Ebrill 2017.&lt;/p&gt;&lt;p&gt;Atebwch y cwestiwn hwn ar gyfer plant, er nad ydynt efallai yn ddigon hen i briodi nac i ffurfio partneriaeth sifil o'r un rhyw.&lt;/p&gt;&lt;p&gt;Os oeddech yn briod (neu wedi ffurfio partneriaeth gofrestredig o'r un rhyw) dramor, a bod hyn yn eich galluogi i gael eich cydnabod yn briod neu mewn partneriaeth sifil yn y Deyrnas Unedig, atebwch y cwestiwn gan adlewyrchu'r bartneriaeth gyfreithiol honno.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Os nad ydych yn gweithio atebwch y cwestiynau sy'n weddill am eich prif swydd ddiwethaf.&lt;/p&gt;&lt;p&gt;Eich prif swydd yw’r swydd yr ydych (oeddech) fel arfer yn gweithio’r nifer fwyaf o oriau ynddi &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nodwch enwau cyntaf, enwau canol a chyfenwau presennol pawb sy'n byw yma fel arfer.&lt;/p&gt;&lt;p&gt;Os nad ydych wedi enwi'ch baban newydd eto, nodwch 'Baban' fel ei enw cyntaf ac yna nodwch ei gyfenw.&lt;/p&gt;&lt;p&gt;Dylech hefyd gynnwys aelodau o'r cartref sydd wedi gofyn am ffurflen bersonol.&lt;/p&gt;&lt;p&gt;Hefyd nodwch enwau pobl sy'n aros gyda chi dros dro nad oes ganddynt gyfeiriad arferol yn y DU. Y rheswm dros hyn yw er mwyn sicrhau ein bod yn cyfrif pawb.&lt;/p&gt;&lt;p&gt;Dylech gynnwys:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Pobl sydd fel arfer yn byw y tu allan i'r Deyrnas Unedig sy'n aros yma am dri mis neu fwy&lt;/li&gt;&lt;li&gt;Pobl sy'n gweithio oddi cartref yn y Deyrnas Unedig os mai hwn yw eu cartref parhaol neu gartref y teulu&lt;/li&gt;&lt;li&gt;Aelodau o'r Lluoedd Arfog os mai hwn yw eu cartref parhaol neu gartref y teulu&lt;/li&gt;&lt;li&gt;Pobl sydd y tu allan i'r Deyrnas Unedig dros dro am lai na 12 mis&lt;/li&gt;&lt;li&gt;Pobl sy'n aros dros dro sydd fel arfer yn byw yn y Deyrnas Unedig ond nad oes ganddynt gyfeiriad arall yn y Deyrnas Unedig, er enghraifft perthnasau, ffrindiau&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Rhowch ddisgrifiad byr o beth ydych (oeddech) chi'n ei wneud yn eich prif swydd. Eich prif swydd yw’r swydd yr ydych (oeddech) fel arfer yn gweithio’r nifer fwyaf o oriau ynddi.&lt;/p&gt;&lt;p&gt;Rhowch y wybodaeth orau bosibl hyd yn oed os nad ydych yn siŵr o'r holl fanylion neu'n methu â'u cofio.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Pobl sy’n byw y tu allan i’r Deyrnas Unedig fel arfer, ond sy’n aros yn y Deyrnas Unedig am &lt;b&gt;dri mis neu fwy&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Pobl sydd y tu allan i’r Deyrnas Unedig dros dro am &lt;b&gt;lai na 12 mis&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os ydych (oeddech) yn swyddog llywodraeth leol, ysgrifennwch swyddog llywodraeth leol, ysgrifennwch &lt;b&gt;llywodraeth leol&lt;/b&gt; a rhowch enw'r adran o fewn yr awdurdod lleol </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3354,12 +3370,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3386,14 +3402,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3420,6 +3437,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3595,21 +3613,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C655"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A640" workbookViewId="0">
+      <selection activeCell="C652" sqref="C652"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3620,7 +3638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3631,7 +3649,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3642,7 +3660,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3653,7 +3671,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="165">
+    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3664,7 +3682,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60">
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -3675,7 +3693,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3686,7 +3704,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3697,7 +3715,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -3708,7 +3726,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -3719,16 +3737,16 @@
         <v>687</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="45">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -3739,7 +3757,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="165">
+    <row r="15" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -3750,7 +3768,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="60">
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -3761,7 +3779,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -3772,7 +3790,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -3783,7 +3801,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -3794,7 +3812,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -3805,16 +3823,16 @@
         <v>687</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" ht="60">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -3825,7 +3843,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="75">
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -3836,7 +3854,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3847,7 +3865,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -3858,7 +3876,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="45">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -3869,7 +3887,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3880,10 +3898,10 @@
         <v>694</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" ht="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -3894,7 +3912,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="45">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -3905,7 +3923,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -3916,7 +3934,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -3927,7 +3945,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -3938,10 +3956,10 @@
         <v>699</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" ht="30">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -3952,7 +3970,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -3963,7 +3981,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -3974,7 +3992,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -3985,10 +4003,10 @@
         <v>702</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -3999,7 +4017,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -4010,7 +4028,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -4021,7 +4039,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
@@ -4032,10 +4050,10 @@
         <v>705</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" ht="30">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
@@ -4046,7 +4064,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
@@ -4057,7 +4075,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -4068,7 +4086,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="45">
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -4079,10 +4097,10 @@
         <v>708</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" ht="45">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -4093,10 +4111,10 @@
         <v>709</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" ht="60">
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -4107,10 +4125,10 @@
         <v>710</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" ht="30">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,7 +4139,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="45">
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -4132,7 +4150,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
@@ -4143,7 +4161,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -4154,7 +4172,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -4165,7 +4183,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -4176,7 +4194,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4187,16 +4205,16 @@
         <v>716</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" ht="30">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
@@ -4207,7 +4225,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="45">
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -4218,7 +4236,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>80</v>
       </c>
@@ -4229,7 +4247,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
@@ -4240,7 +4258,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
@@ -4251,7 +4269,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>80</v>
       </c>
@@ -4262,7 +4280,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>80</v>
       </c>
@@ -4273,10 +4291,10 @@
         <v>723</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>86</v>
       </c>
@@ -4287,7 +4305,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>88</v>
       </c>
@@ -4298,7 +4316,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
@@ -4309,7 +4327,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>90</v>
       </c>
@@ -4320,7 +4338,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>90</v>
       </c>
@@ -4331,10 +4349,10 @@
         <v>728</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>94</v>
       </c>
@@ -4345,7 +4363,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>95</v>
       </c>
@@ -4356,7 +4374,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="45">
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>97</v>
       </c>
@@ -4367,7 +4385,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="45">
+    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>97</v>
       </c>
@@ -4378,7 +4396,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="60">
+    <row r="82" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>97</v>
       </c>
@@ -4389,10 +4407,10 @@
         <v>732</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>101</v>
       </c>
@@ -4403,7 +4421,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>102</v>
       </c>
@@ -4414,7 +4432,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>104</v>
       </c>
@@ -4425,7 +4443,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="45">
+    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>104</v>
       </c>
@@ -4436,7 +4454,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="45">
+    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>104</v>
       </c>
@@ -4447,16 +4465,16 @@
         <v>736</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" ht="30">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>109</v>
       </c>
@@ -4467,7 +4485,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>111</v>
       </c>
@@ -4478,7 +4496,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>111</v>
       </c>
@@ -4489,16 +4507,16 @@
         <v>739</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" ht="30">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>115</v>
       </c>
@@ -4509,7 +4527,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="60">
+    <row r="97" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>115</v>
       </c>
@@ -4520,7 +4538,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="409.5">
+    <row r="98" spans="1:3" ht="330" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>118</v>
       </c>
@@ -4531,7 +4549,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
@@ -4542,7 +4560,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>120</v>
       </c>
@@ -4553,7 +4571,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>120</v>
       </c>
@@ -4564,7 +4582,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>120</v>
       </c>
@@ -4575,7 +4593,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>120</v>
       </c>
@@ -4586,16 +4604,16 @@
         <v>747</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>127</v>
       </c>
@@ -4606,7 +4624,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>129</v>
       </c>
@@ -4617,7 +4635,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>129</v>
       </c>
@@ -4628,10 +4646,10 @@
         <v>702</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>130</v>
       </c>
@@ -4642,7 +4660,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="105">
+    <row r="111" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>131</v>
       </c>
@@ -4653,7 +4671,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="30">
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>133</v>
       </c>
@@ -4664,7 +4682,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="60">
+    <row r="113" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>135</v>
       </c>
@@ -4675,7 +4693,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>135</v>
       </c>
@@ -4686,10 +4704,10 @@
         <v>752</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" ht="30">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>137</v>
       </c>
@@ -4700,7 +4718,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="150">
+    <row r="117" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>139</v>
       </c>
@@ -4711,7 +4729,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="30">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>141</v>
       </c>
@@ -4722,7 +4740,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>141</v>
       </c>
@@ -4733,7 +4751,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>143</v>
       </c>
@@ -4744,7 +4762,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>143</v>
       </c>
@@ -4755,7 +4773,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>143</v>
       </c>
@@ -4766,7 +4784,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>143</v>
       </c>
@@ -4777,7 +4795,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>143</v>
       </c>
@@ -4788,7 +4806,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>143</v>
       </c>
@@ -4799,7 +4817,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>143</v>
       </c>
@@ -4810,7 +4828,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="30">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>143</v>
       </c>
@@ -4821,7 +4839,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>143</v>
       </c>
@@ -4832,16 +4850,16 @@
         <v>747</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" ht="30">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>153</v>
       </c>
@@ -4852,7 +4870,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>153</v>
       </c>
@@ -4863,7 +4881,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>154</v>
       </c>
@@ -4874,7 +4892,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="60">
+    <row r="134" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>154</v>
       </c>
@@ -4885,7 +4903,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>154</v>
       </c>
@@ -4896,7 +4914,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>154</v>
       </c>
@@ -4907,7 +4925,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>154</v>
       </c>
@@ -4918,7 +4936,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>154</v>
       </c>
@@ -4929,7 +4947,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>154</v>
       </c>
@@ -4940,7 +4958,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="30">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>154</v>
       </c>
@@ -4951,7 +4969,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>154</v>
       </c>
@@ -4962,10 +4980,10 @@
         <v>747</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="1:3" ht="45">
+    <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>156</v>
       </c>
@@ -4976,10 +4994,10 @@
         <v>766</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="1:3" ht="30">
+    <row r="145" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>156</v>
       </c>
@@ -4990,7 +5008,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>159</v>
       </c>
@@ -5001,7 +5019,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="75">
+    <row r="147" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
@@ -5012,7 +5030,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="90">
+    <row r="148" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>159</v>
       </c>
@@ -5023,7 +5041,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="45">
+    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>159</v>
       </c>
@@ -5034,7 +5052,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="90">
+    <row r="150" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>164</v>
       </c>
@@ -5045,7 +5063,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="60">
+    <row r="151" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>164</v>
       </c>
@@ -5056,7 +5074,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="120">
+    <row r="152" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>167</v>
       </c>
@@ -5067,7 +5085,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="60">
+    <row r="153" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>167</v>
       </c>
@@ -5078,7 +5096,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="75">
+    <row r="154" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>167</v>
       </c>
@@ -5089,7 +5107,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="30">
+    <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
@@ -5100,7 +5118,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="45">
+    <row r="156" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>167</v>
       </c>
@@ -5111,7 +5129,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="60">
+    <row r="157" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>167</v>
       </c>
@@ -5122,7 +5140,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="75">
+    <row r="158" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>167</v>
       </c>
@@ -5133,7 +5151,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="45">
+    <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>167</v>
       </c>
@@ -5144,7 +5162,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="60">
+    <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>167</v>
       </c>
@@ -5155,7 +5173,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>167</v>
       </c>
@@ -5166,7 +5184,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="30">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>167</v>
       </c>
@@ -5177,7 +5195,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>167</v>
       </c>
@@ -5188,7 +5206,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="30">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>167</v>
       </c>
@@ -5199,7 +5217,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="45">
+    <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>167</v>
       </c>
@@ -5210,7 +5228,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="45">
+    <row r="166" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -5221,7 +5239,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>167</v>
       </c>
@@ -5232,16 +5250,16 @@
         <v>789</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="1:3" ht="90">
+    <row r="170" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>185</v>
       </c>
@@ -5252,7 +5270,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="60">
+    <row r="171" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>185</v>
       </c>
@@ -5263,7 +5281,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="90">
+    <row r="172" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>186</v>
       </c>
@@ -5274,7 +5292,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="45">
+    <row r="173" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>186</v>
       </c>
@@ -5285,7 +5303,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="60">
+    <row r="174" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
@@ -5296,7 +5314,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="30">
+    <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>186</v>
       </c>
@@ -5307,7 +5325,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="30">
+    <row r="176" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>186</v>
       </c>
@@ -5318,7 +5336,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="60">
+    <row r="177" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>186</v>
       </c>
@@ -5329,7 +5347,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="75">
+    <row r="178" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>186</v>
       </c>
@@ -5340,7 +5358,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="45">
+    <row r="179" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>186</v>
       </c>
@@ -5351,7 +5369,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="60">
+    <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>186</v>
       </c>
@@ -5362,7 +5380,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>186</v>
       </c>
@@ -5373,7 +5391,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="30">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>186</v>
       </c>
@@ -5384,7 +5402,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>186</v>
       </c>
@@ -5395,7 +5413,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="30">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>186</v>
       </c>
@@ -5406,7 +5424,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="45">
+    <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -5417,7 +5435,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="45">
+    <row r="186" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>186</v>
       </c>
@@ -5428,7 +5446,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
@@ -5439,16 +5457,16 @@
         <v>789</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="1:3" ht="75">
+    <row r="190" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>194</v>
       </c>
@@ -5459,7 +5477,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="30">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>194</v>
       </c>
@@ -5470,7 +5488,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="150">
+    <row r="192" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>197</v>
       </c>
@@ -5481,7 +5499,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="30">
+    <row r="193" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>199</v>
       </c>
@@ -5492,7 +5510,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="30">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>199</v>
       </c>
@@ -5503,10 +5521,10 @@
         <v>801</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>202</v>
       </c>
@@ -5517,7 +5535,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>204</v>
       </c>
@@ -5528,7 +5546,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="45">
+    <row r="198" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>204</v>
       </c>
@@ -5539,7 +5557,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="75">
+    <row r="199" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>204</v>
       </c>
@@ -5550,7 +5568,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="45">
+    <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>204</v>
       </c>
@@ -5561,7 +5579,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="30">
+    <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>204</v>
       </c>
@@ -5572,7 +5590,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="45">
+    <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>210</v>
       </c>
@@ -5583,7 +5601,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>212</v>
       </c>
@@ -5594,7 +5612,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="75">
+    <row r="204" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>214</v>
       </c>
@@ -5605,7 +5623,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>216</v>
       </c>
@@ -5616,7 +5634,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="30">
+    <row r="206" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>216</v>
       </c>
@@ -5627,7 +5645,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>216</v>
       </c>
@@ -5638,16 +5656,16 @@
         <v>813</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="1:3" ht="60">
+    <row r="210" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>220</v>
       </c>
@@ -5658,7 +5676,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="30">
+    <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>220</v>
       </c>
@@ -5669,7 +5687,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="75">
+    <row r="212" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>223</v>
       </c>
@@ -5680,7 +5698,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>225</v>
       </c>
@@ -5691,7 +5709,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="45">
+    <row r="214" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>225</v>
       </c>
@@ -5702,7 +5720,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="30">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>225</v>
       </c>
@@ -5713,7 +5731,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="30">
+    <row r="216" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>225</v>
       </c>
@@ -5724,7 +5742,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>225</v>
       </c>
@@ -5735,16 +5753,16 @@
         <v>821</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" ht="30">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>232</v>
       </c>
@@ -5755,7 +5773,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>232</v>
       </c>
@@ -5766,7 +5784,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>234</v>
       </c>
@@ -5777,7 +5795,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>234</v>
       </c>
@@ -5788,7 +5806,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>234</v>
       </c>
@@ -5799,7 +5817,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>234</v>
       </c>
@@ -5810,10 +5828,10 @@
         <v>825</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>238</v>
       </c>
@@ -5824,7 +5842,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="45">
+    <row r="228" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>239</v>
       </c>
@@ -5835,7 +5853,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="390">
+    <row r="229" spans="1:3" ht="165" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>241</v>
       </c>
@@ -5843,10 +5861,10 @@
         <v>242</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="30">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>243</v>
       </c>
@@ -5854,10 +5872,10 @@
         <v>244</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="30">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>243</v>
       </c>
@@ -5865,10 +5883,10 @@
         <v>245</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="60">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>243</v>
       </c>
@@ -5876,10 +5894,10 @@
         <v>246</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="30">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>243</v>
       </c>
@@ -5887,10 +5905,10 @@
         <v>247</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>243</v>
       </c>
@@ -5898,13 +5916,13 @@
         <v>248</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>249</v>
       </c>
@@ -5915,7 +5933,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>250</v>
       </c>
@@ -5926,7 +5944,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="60">
+    <row r="238" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>250</v>
       </c>
@@ -5934,10 +5952,10 @@
         <v>251</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="90">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>250</v>
       </c>
@@ -5945,10 +5963,10 @@
         <v>252</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="60">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>250</v>
       </c>
@@ -5956,10 +5974,10 @@
         <v>253</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>250</v>
       </c>
@@ -5967,10 +5985,10 @@
         <v>254</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="45">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>255</v>
       </c>
@@ -5978,10 +5996,10 @@
         <v>256</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="45">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>257</v>
       </c>
@@ -5989,10 +6007,10 @@
         <v>258</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="30">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>257</v>
       </c>
@@ -6000,10 +6018,10 @@
         <v>259</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="45">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>260</v>
       </c>
@@ -6011,19 +6029,19 @@
         <v>261</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="1:3" ht="30">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>263</v>
       </c>
@@ -6031,10 +6049,10 @@
         <v>264</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>265</v>
       </c>
@@ -6045,7 +6063,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>266</v>
       </c>
@@ -6053,10 +6071,10 @@
         <v>217</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>266</v>
       </c>
@@ -6064,19 +6082,19 @@
         <v>28</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>267</v>
       </c>
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="1:3" ht="30">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>268</v>
       </c>
@@ -6084,10 +6102,10 @@
         <v>269</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>270</v>
       </c>
@@ -6095,19 +6113,19 @@
         <v>271</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>272</v>
       </c>
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="1:3" ht="45">
+    <row r="258" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>273</v>
       </c>
@@ -6115,10 +6133,10 @@
         <v>274</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="165">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>275</v>
       </c>
@@ -6129,7 +6147,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>276</v>
       </c>
@@ -6137,10 +6155,10 @@
         <v>277</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="30">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>276</v>
       </c>
@@ -6148,10 +6166,10 @@
         <v>278</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>276</v>
       </c>
@@ -6159,19 +6177,19 @@
         <v>279</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>280</v>
       </c>
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="1:3" ht="60">
+    <row r="265" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>281</v>
       </c>
@@ -6179,10 +6197,10 @@
         <v>282</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>283</v>
       </c>
@@ -6193,7 +6211,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>284</v>
       </c>
@@ -6201,10 +6219,10 @@
         <v>69</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>285</v>
       </c>
@@ -6215,7 +6233,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>286</v>
       </c>
@@ -6226,7 +6244,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>287</v>
       </c>
@@ -6237,16 +6255,16 @@
         <v>716</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="1:3" ht="30">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>289</v>
       </c>
@@ -6257,7 +6275,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="30">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>289</v>
       </c>
@@ -6265,10 +6283,10 @@
         <v>290</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="45">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>291</v>
       </c>
@@ -6276,10 +6294,10 @@
         <v>292</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>291</v>
       </c>
@@ -6287,10 +6305,10 @@
         <v>293</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="30">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>291</v>
       </c>
@@ -6298,10 +6316,10 @@
         <v>294</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="30">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>291</v>
       </c>
@@ -6309,10 +6327,10 @@
         <v>295</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>291</v>
       </c>
@@ -6320,13 +6338,13 @@
         <v>296</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>297</v>
       </c>
@@ -6337,7 +6355,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="45">
+    <row r="282" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>298</v>
       </c>
@@ -6345,10 +6363,10 @@
         <v>299</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="60">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>300</v>
       </c>
@@ -6356,10 +6374,10 @@
         <v>301</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="45">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>302</v>
       </c>
@@ -6367,10 +6385,10 @@
         <v>258</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>303</v>
       </c>
@@ -6378,13 +6396,13 @@
         <v>304</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>305</v>
       </c>
@@ -6395,7 +6413,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="105">
+    <row r="288" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>306</v>
       </c>
@@ -6403,10 +6421,10 @@
         <v>307</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="45">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>308</v>
       </c>
@@ -6414,10 +6432,10 @@
         <v>309</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="45">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>310</v>
       </c>
@@ -6425,10 +6443,10 @@
         <v>258</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>311</v>
       </c>
@@ -6436,10 +6454,10 @@
         <v>312</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="45">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>313</v>
       </c>
@@ -6447,10 +6465,10 @@
         <v>314</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="360">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="150" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>315</v>
       </c>
@@ -6458,10 +6476,10 @@
         <v>316</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="30">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>317</v>
       </c>
@@ -6472,7 +6490,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>317</v>
       </c>
@@ -6480,10 +6498,10 @@
         <v>318</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>317</v>
       </c>
@@ -6491,10 +6509,10 @@
         <v>319</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>317</v>
       </c>
@@ -6502,10 +6520,10 @@
         <v>320</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="30">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>317</v>
       </c>
@@ -6513,10 +6531,10 @@
         <v>321</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>317</v>
       </c>
@@ -6524,10 +6542,10 @@
         <v>322</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>317</v>
       </c>
@@ -6538,7 +6556,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="30">
+    <row r="301" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>317</v>
       </c>
@@ -6546,19 +6564,19 @@
         <v>323</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C302" s="1"/>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>324</v>
       </c>
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="1:3" ht="45">
+    <row r="304" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>325</v>
       </c>
@@ -6566,10 +6584,10 @@
         <v>314</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="360">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="150" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>326</v>
       </c>
@@ -6577,10 +6595,10 @@
         <v>316</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="30">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>327</v>
       </c>
@@ -6591,7 +6609,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>327</v>
       </c>
@@ -6599,10 +6617,10 @@
         <v>319</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>327</v>
       </c>
@@ -6610,10 +6628,10 @@
         <v>318</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>327</v>
       </c>
@@ -6621,10 +6639,10 @@
         <v>320</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="30">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>327</v>
       </c>
@@ -6632,10 +6650,10 @@
         <v>321</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>327</v>
       </c>
@@ -6643,10 +6661,10 @@
         <v>322</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>327</v>
       </c>
@@ -6657,7 +6675,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="30">
+    <row r="313" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>327</v>
       </c>
@@ -6665,19 +6683,19 @@
         <v>323</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C315" s="1"/>
     </row>
-    <row r="316" spans="1:3" ht="45">
+    <row r="316" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>329</v>
       </c>
@@ -6685,10 +6703,10 @@
         <v>330</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="165">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>331</v>
       </c>
@@ -6699,7 +6717,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>332</v>
       </c>
@@ -6707,10 +6725,10 @@
         <v>333</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>332</v>
       </c>
@@ -6718,10 +6736,10 @@
         <v>334</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>332</v>
       </c>
@@ -6729,10 +6747,10 @@
         <v>335</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="30">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>332</v>
       </c>
@@ -6740,10 +6758,10 @@
         <v>336</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="30">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>332</v>
       </c>
@@ -6751,10 +6769,10 @@
         <v>337</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>338</v>
       </c>
@@ -6762,19 +6780,19 @@
         <v>339</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>340</v>
       </c>
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="1:3" ht="75">
+    <row r="326" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>341</v>
       </c>
@@ -6782,10 +6800,10 @@
         <v>342</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="270">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>343</v>
       </c>
@@ -6793,10 +6811,10 @@
         <v>344</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="45">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>345</v>
       </c>
@@ -6804,10 +6822,10 @@
         <v>346</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>345</v>
       </c>
@@ -6815,10 +6833,10 @@
         <v>347</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" ht="30">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>345</v>
       </c>
@@ -6826,10 +6844,10 @@
         <v>348</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="45">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>345</v>
       </c>
@@ -6837,10 +6855,10 @@
         <v>349</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="45">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>345</v>
       </c>
@@ -6848,10 +6866,10 @@
         <v>350</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>345</v>
       </c>
@@ -6859,10 +6877,10 @@
         <v>351</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="60">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>345</v>
       </c>
@@ -6870,10 +6888,10 @@
         <v>352</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>345</v>
       </c>
@@ -6881,10 +6899,10 @@
         <v>353</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" ht="30">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>345</v>
       </c>
@@ -6892,19 +6910,19 @@
         <v>354</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>355</v>
       </c>
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="1:3" ht="30">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>356</v>
       </c>
@@ -6912,10 +6930,10 @@
         <v>357</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="30">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>358</v>
       </c>
@@ -6923,10 +6941,10 @@
         <v>359</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="45">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>358</v>
       </c>
@@ -6934,10 +6952,10 @@
         <v>360</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="75">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>358</v>
       </c>
@@ -6945,10 +6963,10 @@
         <v>361</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" ht="30">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>358</v>
       </c>
@@ -6956,19 +6974,19 @@
         <v>362</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>363</v>
       </c>
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="1:3" ht="135">
+    <row r="346" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>364</v>
       </c>
@@ -6976,10 +6994,10 @@
         <v>365</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="30">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>366</v>
       </c>
@@ -6987,10 +7005,10 @@
         <v>367</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>368</v>
       </c>
@@ -6998,10 +7016,10 @@
         <v>369</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="45">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>368</v>
       </c>
@@ -7009,10 +7027,10 @@
         <v>370</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" ht="30">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>368</v>
       </c>
@@ -7020,19 +7038,19 @@
         <v>371</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C352" s="1"/>
     </row>
-    <row r="353" spans="1:3" ht="75">
+    <row r="353" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>373</v>
       </c>
@@ -7040,10 +7058,10 @@
         <v>374</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="60">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>375</v>
       </c>
@@ -7051,10 +7069,10 @@
         <v>376</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>377</v>
       </c>
@@ -7062,10 +7080,10 @@
         <v>378</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" ht="30">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>377</v>
       </c>
@@ -7073,10 +7091,10 @@
         <v>379</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>377</v>
       </c>
@@ -7084,19 +7102,19 @@
         <v>380</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="1:3" ht="30">
+    <row r="360" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>382</v>
       </c>
@@ -7104,10 +7122,10 @@
         <v>383</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>384</v>
       </c>
@@ -7118,7 +7136,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>385</v>
       </c>
@@ -7126,10 +7144,10 @@
         <v>69</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>386</v>
       </c>
@@ -7140,7 +7158,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>387</v>
       </c>
@@ -7151,7 +7169,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>388</v>
       </c>
@@ -7162,7 +7180,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="409.5">
+    <row r="366" spans="1:3" ht="330" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>389</v>
       </c>
@@ -7170,10 +7188,10 @@
         <v>390</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>391</v>
       </c>
@@ -7184,7 +7202,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>392</v>
       </c>
@@ -7192,10 +7210,10 @@
         <v>393</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>394</v>
       </c>
@@ -7203,10 +7221,10 @@
         <v>395</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" ht="30">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>394</v>
       </c>
@@ -7214,10 +7232,10 @@
         <v>396</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>394</v>
       </c>
@@ -7228,7 +7246,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>394</v>
       </c>
@@ -7236,19 +7254,19 @@
         <v>397</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C373" s="1"/>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>398</v>
       </c>
       <c r="C374" s="1"/>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>399</v>
       </c>
@@ -7256,10 +7274,10 @@
         <v>393</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>400</v>
       </c>
@@ -7267,10 +7285,10 @@
         <v>319</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" ht="30">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>400</v>
       </c>
@@ -7278,10 +7296,10 @@
         <v>396</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>400</v>
       </c>
@@ -7292,7 +7310,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>400</v>
       </c>
@@ -7300,13 +7318,13 @@
         <v>397</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C380" s="1"/>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>401</v>
       </c>
@@ -7317,7 +7335,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>402</v>
       </c>
@@ -7325,10 +7343,10 @@
         <v>403</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" ht="75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>404</v>
       </c>
@@ -7336,10 +7354,10 @@
         <v>405</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>404</v>
       </c>
@@ -7347,10 +7365,10 @@
         <v>406</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" ht="30">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>404</v>
       </c>
@@ -7358,10 +7376,10 @@
         <v>407</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>404</v>
       </c>
@@ -7369,10 +7387,10 @@
         <v>408</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" ht="30">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>404</v>
       </c>
@@ -7380,10 +7398,10 @@
         <v>409</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>404</v>
       </c>
@@ -7394,16 +7412,16 @@
         <v>824</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C389" s="1"/>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>410</v>
       </c>
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="1:3" ht="60">
+    <row r="391" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>411</v>
       </c>
@@ -7411,10 +7429,10 @@
         <v>412</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>413</v>
       </c>
@@ -7422,10 +7440,10 @@
         <v>217</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>413</v>
       </c>
@@ -7433,19 +7451,19 @@
         <v>28</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C394" s="1"/>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>414</v>
       </c>
       <c r="C395" s="1"/>
     </row>
-    <row r="396" spans="1:3" ht="90">
+    <row r="396" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>415</v>
       </c>
@@ -7453,10 +7471,10 @@
         <v>416</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" ht="30">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>417</v>
       </c>
@@ -7464,10 +7482,10 @@
         <v>418</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" ht="120">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>419</v>
       </c>
@@ -7475,10 +7493,10 @@
         <v>420</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>421</v>
       </c>
@@ -7486,19 +7504,19 @@
         <v>422</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C400" s="1"/>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>423</v>
       </c>
       <c r="C401" s="1"/>
     </row>
-    <row r="402" spans="1:3" ht="60">
+    <row r="402" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>424</v>
       </c>
@@ -7506,10 +7524,10 @@
         <v>425</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>426</v>
       </c>
@@ -7517,10 +7535,10 @@
         <v>217</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>426</v>
       </c>
@@ -7528,19 +7546,19 @@
         <v>28</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C405" s="1"/>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>427</v>
       </c>
       <c r="C406" s="1"/>
     </row>
-    <row r="407" spans="1:3" ht="30">
+    <row r="407" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>428</v>
       </c>
@@ -7548,10 +7566,10 @@
         <v>429</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" ht="165">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>430</v>
       </c>
@@ -7559,10 +7577,10 @@
         <v>431</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>432</v>
       </c>
@@ -7570,19 +7588,19 @@
         <v>433</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>434</v>
       </c>
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="1:3" ht="60">
+    <row r="412" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>435</v>
       </c>
@@ -7590,10 +7608,10 @@
         <v>436</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>437</v>
       </c>
@@ -7601,10 +7619,10 @@
         <v>217</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>437</v>
       </c>
@@ -7612,19 +7630,19 @@
         <v>28</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C415" s="1"/>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>438</v>
       </c>
       <c r="C416" s="1"/>
     </row>
-    <row r="417" spans="1:3" ht="45">
+    <row r="417" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>439</v>
       </c>
@@ -7632,10 +7650,10 @@
         <v>440</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" ht="360">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="255" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>441</v>
       </c>
@@ -7643,10 +7661,10 @@
         <v>442</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>443</v>
       </c>
@@ -7654,10 +7672,10 @@
         <v>217</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>443</v>
       </c>
@@ -7668,10 +7686,10 @@
         <v>691</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C421" s="1"/>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>444</v>
       </c>
@@ -7682,7 +7700,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="30">
+    <row r="423" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>445</v>
       </c>
@@ -7690,10 +7708,10 @@
         <v>446</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" ht="75">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>445</v>
       </c>
@@ -7701,10 +7719,10 @@
         <v>447</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" ht="60">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>445</v>
       </c>
@@ -7712,10 +7730,10 @@
         <v>448</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" ht="60">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>445</v>
       </c>
@@ -7723,10 +7741,10 @@
         <v>449</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" ht="90">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>445</v>
       </c>
@@ -7734,10 +7752,10 @@
         <v>450</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" ht="90">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>445</v>
       </c>
@@ -7745,10 +7763,10 @@
         <v>451</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" ht="60">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>452</v>
       </c>
@@ -7756,10 +7774,10 @@
         <v>453</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" ht="30">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>452</v>
       </c>
@@ -7767,10 +7785,10 @@
         <v>454</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" ht="30">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>455</v>
       </c>
@@ -7778,10 +7796,10 @@
         <v>456</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>455</v>
       </c>
@@ -7789,10 +7807,10 @@
         <v>457</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>455</v>
       </c>
@@ -7800,10 +7818,10 @@
         <v>458</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>455</v>
       </c>
@@ -7814,7 +7832,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="30">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>455</v>
       </c>
@@ -7822,10 +7840,10 @@
         <v>460</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>455</v>
       </c>
@@ -7833,10 +7851,10 @@
         <v>461</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>455</v>
       </c>
@@ -7844,10 +7862,10 @@
         <v>462</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>455</v>
       </c>
@@ -7855,10 +7873,10 @@
         <v>463</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>455</v>
       </c>
@@ -7866,10 +7884,10 @@
         <v>464</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>455</v>
       </c>
@@ -7877,10 +7895,10 @@
         <v>465</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>455</v>
       </c>
@@ -7888,10 +7906,10 @@
         <v>466</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>455</v>
       </c>
@@ -7899,10 +7917,10 @@
         <v>467</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>455</v>
       </c>
@@ -7910,10 +7928,10 @@
         <v>468</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" ht="30">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>455</v>
       </c>
@@ -7921,13 +7939,13 @@
         <v>469</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C445" s="1"/>
     </row>
-    <row r="446" spans="1:3" ht="105">
+    <row r="446" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>470</v>
       </c>
@@ -7935,13 +7953,13 @@
         <v>471</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C447" s="1"/>
     </row>
-    <row r="448" spans="1:3" ht="120">
+    <row r="448" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>472</v>
       </c>
@@ -7949,13 +7967,13 @@
         <v>473</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C449" s="1"/>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>474</v>
       </c>
@@ -7966,7 +7984,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>475</v>
       </c>
@@ -7977,7 +7995,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="45">
+    <row r="452" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>475</v>
       </c>
@@ -7988,7 +8006,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="75">
+    <row r="453" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>475</v>
       </c>
@@ -7999,7 +8017,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="45">
+    <row r="454" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>475</v>
       </c>
@@ -8010,7 +8028,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="30">
+    <row r="455" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>475</v>
       </c>
@@ -8021,7 +8039,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="30">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>476</v>
       </c>
@@ -8029,13 +8047,13 @@
         <v>477</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C457" s="1"/>
     </row>
-    <row r="458" spans="1:3" ht="45">
+    <row r="458" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>478</v>
       </c>
@@ -8043,10 +8061,10 @@
         <v>479</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" ht="30">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>480</v>
       </c>
@@ -8054,10 +8072,10 @@
         <v>481</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>482</v>
       </c>
@@ -8068,10 +8086,10 @@
         <v>705</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C461" s="1"/>
     </row>
-    <row r="462" spans="1:3" ht="105">
+    <row r="462" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>483</v>
       </c>
@@ -8079,13 +8097,13 @@
         <v>484</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C463" s="1"/>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>483</v>
       </c>
@@ -8096,7 +8114,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>485</v>
       </c>
@@ -8107,7 +8125,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="75">
+    <row r="466" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>485</v>
       </c>
@@ -8115,10 +8133,10 @@
         <v>486</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" ht="60">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>485</v>
       </c>
@@ -8126,10 +8144,10 @@
         <v>487</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" ht="45">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>485</v>
       </c>
@@ -8137,10 +8155,10 @@
         <v>488</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" ht="45">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>485</v>
       </c>
@@ -8148,10 +8166,10 @@
         <v>489</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" ht="90">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>485</v>
       </c>
@@ -8159,10 +8177,10 @@
         <v>490</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" ht="45">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>485</v>
       </c>
@@ -8170,10 +8188,10 @@
         <v>491</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" ht="90">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>492</v>
       </c>
@@ -8181,10 +8199,10 @@
         <v>493</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" ht="45">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>492</v>
       </c>
@@ -8192,10 +8210,10 @@
         <v>494</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>495</v>
       </c>
@@ -8203,10 +8221,10 @@
         <v>217</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" ht="30">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>495</v>
       </c>
@@ -8214,19 +8232,19 @@
         <v>496</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C476" s="1"/>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>497</v>
       </c>
       <c r="C477" s="1"/>
     </row>
-    <row r="478" spans="1:3" ht="30">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>498</v>
       </c>
@@ -8234,10 +8252,10 @@
         <v>499</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" ht="195">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>500</v>
       </c>
@@ -8245,10 +8263,10 @@
         <v>501</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>502</v>
       </c>
@@ -8256,10 +8274,10 @@
         <v>217</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>502</v>
       </c>
@@ -8270,7 +8288,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>503</v>
       </c>
@@ -8278,10 +8296,10 @@
         <v>504</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" ht="240">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="165" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>505</v>
       </c>
@@ -8289,10 +8307,10 @@
         <v>506</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" ht="105">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>507</v>
       </c>
@@ -8300,10 +8318,10 @@
         <v>508</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>507</v>
       </c>
@@ -8311,10 +8329,10 @@
         <v>509</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" ht="75">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>507</v>
       </c>
@@ -8322,10 +8340,10 @@
         <v>510</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" ht="30">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>507</v>
       </c>
@@ -8333,10 +8351,10 @@
         <v>511</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" ht="75">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>507</v>
       </c>
@@ -8344,10 +8362,10 @@
         <v>512</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>507</v>
       </c>
@@ -8355,10 +8373,10 @@
         <v>513</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" ht="60">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>507</v>
       </c>
@@ -8366,10 +8384,10 @@
         <v>514</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" ht="30">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>507</v>
       </c>
@@ -8377,10 +8395,10 @@
         <v>515</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" ht="30">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>507</v>
       </c>
@@ -8388,10 +8406,10 @@
         <v>516</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>507</v>
       </c>
@@ -8399,19 +8417,19 @@
         <v>517</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C494" s="1"/>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>518</v>
       </c>
       <c r="C495" s="1"/>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>519</v>
       </c>
@@ -8419,10 +8437,10 @@
         <v>504</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" ht="240">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" ht="165" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>520</v>
       </c>
@@ -8430,10 +8448,10 @@
         <v>521</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" ht="90">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>522</v>
       </c>
@@ -8441,10 +8459,10 @@
         <v>523</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>522</v>
       </c>
@@ -8452,10 +8470,10 @@
         <v>509</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" ht="75">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>522</v>
       </c>
@@ -8463,10 +8481,10 @@
         <v>510</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" ht="30">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>522</v>
       </c>
@@ -8474,10 +8492,10 @@
         <v>511</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" ht="75">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>522</v>
       </c>
@@ -8485,10 +8503,10 @@
         <v>512</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>522</v>
       </c>
@@ -8496,10 +8514,10 @@
         <v>513</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" ht="60">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>522</v>
       </c>
@@ -8507,10 +8525,10 @@
         <v>514</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" ht="30">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>522</v>
       </c>
@@ -8518,10 +8536,10 @@
         <v>515</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" ht="30">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>522</v>
       </c>
@@ -8529,10 +8547,10 @@
         <v>516</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>522</v>
       </c>
@@ -8540,19 +8558,19 @@
         <v>517</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C508" s="1"/>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>524</v>
       </c>
       <c r="C509" s="1"/>
     </row>
-    <row r="510" spans="1:3" ht="30">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>525</v>
       </c>
@@ -8560,10 +8578,10 @@
         <v>526</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>527</v>
       </c>
@@ -8571,10 +8589,10 @@
         <v>528</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>527</v>
       </c>
@@ -8582,10 +8600,10 @@
         <v>529</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>527</v>
       </c>
@@ -8593,10 +8611,10 @@
         <v>530</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>527</v>
       </c>
@@ -8604,19 +8622,19 @@
         <v>531</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C515" s="1"/>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>532</v>
       </c>
       <c r="C516" s="1"/>
     </row>
-    <row r="517" spans="1:3" ht="75">
+    <row r="517" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>533</v>
       </c>
@@ -8624,10 +8642,10 @@
         <v>534</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3" ht="30">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>535</v>
       </c>
@@ -8638,7 +8656,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="30">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>535</v>
       </c>
@@ -8646,10 +8664,10 @@
         <v>536</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>537</v>
       </c>
@@ -8657,10 +8675,10 @@
         <v>538</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3" ht="30">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>537</v>
       </c>
@@ -8668,10 +8686,10 @@
         <v>539</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3" ht="45">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>537</v>
       </c>
@@ -8679,10 +8697,10 @@
         <v>540</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3" ht="45">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>537</v>
       </c>
@@ -8690,10 +8708,10 @@
         <v>541</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3" ht="90">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>537</v>
       </c>
@@ -8701,10 +8719,10 @@
         <v>542</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3" ht="30">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>537</v>
       </c>
@@ -8712,10 +8730,10 @@
         <v>543</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>537</v>
       </c>
@@ -8723,19 +8741,19 @@
         <v>544</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C527" s="1"/>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>545</v>
       </c>
       <c r="C528" s="1"/>
     </row>
-    <row r="529" spans="1:3" ht="60">
+    <row r="529" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>546</v>
       </c>
@@ -8743,10 +8761,10 @@
         <v>547</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3" ht="45">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>546</v>
       </c>
@@ -8754,10 +8772,10 @@
         <v>548</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" ht="120">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>546</v>
       </c>
@@ -8765,10 +8783,10 @@
         <v>549</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" ht="60">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>550</v>
       </c>
@@ -8776,10 +8794,10 @@
         <v>551</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" ht="285">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" ht="180" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>552</v>
       </c>
@@ -8787,10 +8805,10 @@
         <v>553</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>554</v>
       </c>
@@ -8798,13 +8816,13 @@
         <v>433</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C535" s="1"/>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>555</v>
       </c>
@@ -8815,7 +8833,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>556</v>
       </c>
@@ -8823,10 +8841,10 @@
         <v>557</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3" ht="75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>556</v>
       </c>
@@ -8834,10 +8852,10 @@
         <v>486</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" ht="60">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>556</v>
       </c>
@@ -8845,10 +8863,10 @@
         <v>558</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" ht="45">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>556</v>
       </c>
@@ -8856,10 +8874,10 @@
         <v>488</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" ht="45">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>556</v>
       </c>
@@ -8867,10 +8885,10 @@
         <v>489</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" ht="90">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>556</v>
       </c>
@@ -8878,10 +8896,10 @@
         <v>490</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" ht="45">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>556</v>
       </c>
@@ -8889,10 +8907,10 @@
         <v>559</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" ht="60">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>560</v>
       </c>
@@ -8900,10 +8918,10 @@
         <v>561</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>562</v>
       </c>
@@ -8914,7 +8932,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="546" spans="1:3" ht="30">
+    <row r="546" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>563</v>
       </c>
@@ -8922,10 +8940,10 @@
         <v>564</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3" ht="30">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>563</v>
       </c>
@@ -8933,19 +8951,19 @@
         <v>565</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C548" s="1"/>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>566</v>
       </c>
       <c r="C549" s="1"/>
     </row>
-    <row r="550" spans="1:3" ht="45">
+    <row r="550" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>567</v>
       </c>
@@ -8953,10 +8971,10 @@
         <v>568</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" ht="105">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>569</v>
       </c>
@@ -8964,10 +8982,10 @@
         <v>570</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>571</v>
       </c>
@@ -8975,10 +8993,10 @@
         <v>572</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>571</v>
       </c>
@@ -8986,10 +9004,10 @@
         <v>573</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>571</v>
       </c>
@@ -9000,16 +9018,16 @@
         <v>813</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C555" s="1"/>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>574</v>
       </c>
       <c r="C556" s="1"/>
     </row>
-    <row r="557" spans="1:3" ht="150">
+    <row r="557" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>575</v>
       </c>
@@ -9017,10 +9035,10 @@
         <v>576</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>577</v>
       </c>
@@ -9028,10 +9046,10 @@
         <v>578</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3" ht="30">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>577</v>
       </c>
@@ -9039,19 +9057,19 @@
         <v>579</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C560" s="1"/>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>580</v>
       </c>
       <c r="C561" s="1"/>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>581</v>
       </c>
@@ -9062,7 +9080,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>581</v>
       </c>
@@ -9070,10 +9088,10 @@
         <v>582</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3" ht="45">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>583</v>
       </c>
@@ -9084,7 +9102,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="30">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>584</v>
       </c>
@@ -9092,10 +9110,10 @@
         <v>585</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>586</v>
       </c>
@@ -9103,10 +9121,10 @@
         <v>587</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>586</v>
       </c>
@@ -9114,10 +9132,10 @@
         <v>588</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="568" spans="1:3">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>586</v>
       </c>
@@ -9125,10 +9143,10 @@
         <v>589</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>586</v>
       </c>
@@ -9136,10 +9154,10 @@
         <v>590</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>586</v>
       </c>
@@ -9147,10 +9165,10 @@
         <v>591</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>586</v>
       </c>
@@ -9158,10 +9176,10 @@
         <v>592</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3" ht="30">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>586</v>
       </c>
@@ -9169,19 +9187,19 @@
         <v>593</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C573" s="1"/>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>594</v>
       </c>
       <c r="C574" s="1"/>
     </row>
-    <row r="575" spans="1:3" ht="30">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>595</v>
       </c>
@@ -9189,10 +9207,10 @@
         <v>585</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>596</v>
       </c>
@@ -9200,10 +9218,10 @@
         <v>588</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="577" spans="1:3">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>596</v>
       </c>
@@ -9211,10 +9229,10 @@
         <v>587</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>596</v>
       </c>
@@ -9222,10 +9240,10 @@
         <v>589</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>596</v>
       </c>
@@ -9233,10 +9251,10 @@
         <v>590</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>596</v>
       </c>
@@ -9244,10 +9262,10 @@
         <v>591</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>596</v>
       </c>
@@ -9255,10 +9273,10 @@
         <v>592</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" ht="30">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>596</v>
       </c>
@@ -9266,19 +9284,19 @@
         <v>593</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C583" s="1"/>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>597</v>
       </c>
       <c r="C584" s="1"/>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>598</v>
       </c>
@@ -9286,10 +9304,10 @@
         <v>599</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>600</v>
       </c>
@@ -9297,10 +9315,10 @@
         <v>339</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>601</v>
       </c>
@@ -9311,7 +9329,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>602</v>
       </c>
@@ -9322,10 +9340,10 @@
         <v>705</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C589" s="1"/>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>603</v>
       </c>
@@ -9336,7 +9354,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="591" spans="1:3" ht="135">
+    <row r="591" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>604</v>
       </c>
@@ -9344,10 +9362,10 @@
         <v>605</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3" ht="30">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>604</v>
       </c>
@@ -9355,10 +9373,10 @@
         <v>606</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="593" spans="1:3">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>607</v>
       </c>
@@ -9366,10 +9384,10 @@
         <v>608</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>607</v>
       </c>
@@ -9377,10 +9395,10 @@
         <v>609</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3" ht="30">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>607</v>
       </c>
@@ -9388,10 +9406,10 @@
         <v>610</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="596" spans="1:3">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>607</v>
       </c>
@@ -9399,10 +9417,10 @@
         <v>611</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="597" spans="1:3" ht="30">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>607</v>
       </c>
@@ -9410,10 +9428,10 @@
         <v>612</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>607</v>
       </c>
@@ -9421,19 +9439,19 @@
         <v>613</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C599" s="1"/>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>614</v>
       </c>
       <c r="C600" s="1"/>
     </row>
-    <row r="601" spans="1:3" ht="60">
+    <row r="601" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>615</v>
       </c>
@@ -9441,10 +9459,10 @@
         <v>616</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3" ht="75">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>617</v>
       </c>
@@ -9452,10 +9470,10 @@
         <v>618</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3" ht="90">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>617</v>
       </c>
@@ -9463,10 +9481,10 @@
         <v>619</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="604" spans="1:3">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>620</v>
       </c>
@@ -9477,7 +9495,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>620</v>
       </c>
@@ -9485,10 +9503,10 @@
         <v>621</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="606" spans="1:3">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>620</v>
       </c>
@@ -9496,10 +9514,10 @@
         <v>622</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="607" spans="1:3" ht="30">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>620</v>
       </c>
@@ -9507,19 +9525,19 @@
         <v>623</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="608" spans="1:3">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C608" s="1"/>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>624</v>
       </c>
       <c r="C609" s="1"/>
     </row>
-    <row r="610" spans="1:3" ht="60">
+    <row r="610" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>625</v>
       </c>
@@ -9527,10 +9545,10 @@
         <v>626</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" ht="60">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>627</v>
       </c>
@@ -9538,10 +9556,10 @@
         <v>628</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3" ht="195">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>629</v>
       </c>
@@ -9549,10 +9567,10 @@
         <v>630</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>631</v>
       </c>
@@ -9560,19 +9578,19 @@
         <v>632</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C614" s="1"/>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>633</v>
       </c>
       <c r="C615" s="1"/>
     </row>
-    <row r="616" spans="1:3" ht="60">
+    <row r="616" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>634</v>
       </c>
@@ -9580,10 +9598,10 @@
         <v>635</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3" ht="165">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>636</v>
       </c>
@@ -9594,7 +9612,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>637</v>
       </c>
@@ -9602,10 +9620,10 @@
         <v>638</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>637</v>
       </c>
@@ -9613,10 +9631,10 @@
         <v>639</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3" ht="45">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>637</v>
       </c>
@@ -9624,10 +9642,10 @@
         <v>640</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3" ht="45">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>637</v>
       </c>
@@ -9635,19 +9653,19 @@
         <v>641</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C622" s="1"/>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>642</v>
       </c>
       <c r="C623" s="1"/>
     </row>
-    <row r="624" spans="1:3" ht="45">
+    <row r="624" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>643</v>
       </c>
@@ -9655,10 +9673,10 @@
         <v>644</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3" ht="165">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>645</v>
       </c>
@@ -9669,7 +9687,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>646</v>
       </c>
@@ -9677,10 +9695,10 @@
         <v>647</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>646</v>
       </c>
@@ -9688,10 +9706,10 @@
         <v>648</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>646</v>
       </c>
@@ -9699,10 +9717,10 @@
         <v>649</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
         <v>646</v>
       </c>
@@ -9710,10 +9728,10 @@
         <v>650</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" ht="30">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>646</v>
       </c>
@@ -9721,10 +9739,10 @@
         <v>651</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3" ht="30">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>646</v>
       </c>
@@ -9732,19 +9750,19 @@
         <v>652</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C632" s="1"/>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
         <v>653</v>
       </c>
       <c r="C633" s="1"/>
     </row>
-    <row r="634" spans="1:3" ht="45">
+    <row r="634" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
         <v>654</v>
       </c>
@@ -9752,10 +9770,10 @@
         <v>655</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3" ht="60">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
         <v>656</v>
       </c>
@@ -9763,10 +9781,10 @@
         <v>657</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" ht="45">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
         <v>658</v>
       </c>
@@ -9777,16 +9795,16 @@
         <v>708</v>
       </c>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C637" s="1"/>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
         <v>659</v>
       </c>
       <c r="C638" s="1"/>
     </row>
-    <row r="639" spans="1:3" ht="45">
+    <row r="639" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
         <v>660</v>
       </c>
@@ -9794,10 +9812,10 @@
         <v>661</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" ht="165">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
         <v>662</v>
       </c>
@@ -9805,10 +9823,10 @@
         <v>663</v>
       </c>
       <c r="C640" s="2" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
         <v>664</v>
       </c>
@@ -9819,7 +9837,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
         <v>664</v>
       </c>
@@ -9827,10 +9845,10 @@
         <v>665</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="643" spans="1:3" ht="30">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
         <v>664</v>
       </c>
@@ -9838,10 +9856,10 @@
         <v>666</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
         <v>664</v>
       </c>
@@ -9849,19 +9867,19 @@
         <v>667</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="645" spans="1:3">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C645" s="1"/>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
         <v>668</v>
       </c>
       <c r="C646" s="1"/>
     </row>
-    <row r="647" spans="1:3" ht="30">
+    <row r="647" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
         <v>669</v>
       </c>
@@ -9869,10 +9887,10 @@
         <v>670</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="648" spans="1:3" ht="30">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
         <v>671</v>
       </c>
@@ -9880,10 +9898,10 @@
         <v>672</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="649" spans="1:3" ht="30">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
         <v>671</v>
       </c>
@@ -9891,10 +9909,10 @@
         <v>673</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="650" spans="1:3">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
         <v>671</v>
       </c>
@@ -9902,10 +9920,10 @@
         <v>674</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="651" spans="1:3" ht="30">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
         <v>671</v>
       </c>
@@ -9913,10 +9931,10 @@
         <v>675</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="652" spans="1:3" ht="30">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
         <v>671</v>
       </c>
@@ -9924,10 +9942,10 @@
         <v>676</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="653" spans="1:3">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
         <v>671</v>
       </c>
@@ -9935,10 +9953,10 @@
         <v>677</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="654" spans="1:3">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
         <v>671</v>
       </c>
@@ -9949,7 +9967,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
         <v>671</v>
       </c>
@@ -9957,7 +9975,7 @@
         <v>678</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
     </row>
   </sheetData>

--- a/translations/census_household_translate_welsh.xlsx
+++ b/translations/census_household_translate_welsh.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1088">
   <si>
     <t>Context</t>
   </si>
@@ -3261,6 +3261,36 @@
   </si>
   <si>
     <t xml:space="preserve">Os ydych (oeddech) yn swyddog llywodraeth leol, ysgrifennwch swyddog llywodraeth leol, ysgrifennwch &lt;b&gt;llywodraeth leol&lt;/b&gt; a rhowch enw'r adran o fewn yr awdurdod lleol </t>
+  </si>
+  <si>
+    <t>Relationships</t>
+  </si>
+  <si>
+    <t>Household Member Details</t>
+  </si>
+  <si>
+    <t>Please specify other Black / African / Caribbean background</t>
+  </si>
+  <si>
+    <t>If you are (were) a local government officer, write &lt;b&gt;local government&lt;/b&gt; and give the name of the department within the local authority</t>
+  </si>
+  <si>
+    <t>Visitors</t>
+  </si>
+  <si>
+    <t>You have successfully completed the ‘Visitors’ section</t>
+  </si>
+  <si>
+    <t>Questionnaire Completed</t>
+  </si>
+  <si>
+    <t>Ymwelwyr</t>
+  </si>
+  <si>
+    <t>Rydych wedi cwblhau'r adran 'Ymwelwyr' yn llwyddiannus</t>
+  </si>
+  <si>
+    <t>Nodwch gefndir Du / Affricanaidd / Caribïaidd arall</t>
   </si>
 </sst>
 </file>
@@ -3614,10 +3644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C655"/>
+  <dimension ref="A1:C663"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A640" workbookViewId="0">
-      <selection activeCell="C652" sqref="C652"/>
+    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
+      <selection activeCell="C663" sqref="C663"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3649,7 +3679,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3671,7 +3701,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3682,7 +3712,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -3757,7 +3787,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -3768,7 +3798,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -3832,7 +3862,7 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -3843,7 +3873,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -3923,7 +3953,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -4114,7 +4144,7 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -4139,7 +4169,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -4225,7 +4255,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -4374,7 +4404,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>97</v>
       </c>
@@ -4385,7 +4415,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>97</v>
       </c>
@@ -4396,7 +4426,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>97</v>
       </c>
@@ -4443,7 +4473,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>104</v>
       </c>
@@ -4454,7 +4484,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>104</v>
       </c>
@@ -4527,7 +4557,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>115</v>
       </c>
@@ -4538,7 +4568,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="330" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="240" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>118</v>
       </c>
@@ -4660,7 +4690,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>131</v>
       </c>
@@ -4682,7 +4712,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>135</v>
       </c>
@@ -4718,7 +4748,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>139</v>
       </c>
@@ -4892,7 +4922,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>154</v>
       </c>
@@ -4997,7 +5027,7 @@
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>156</v>
       </c>
@@ -5030,7 +5060,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>159</v>
       </c>
@@ -5052,7 +5082,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>164</v>
       </c>
@@ -5063,7 +5093,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>164</v>
       </c>
@@ -5074,7 +5104,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>167</v>
       </c>
@@ -5096,7 +5126,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>167</v>
       </c>
@@ -5107,7 +5137,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
@@ -5129,7 +5159,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>167</v>
       </c>
@@ -5140,7 +5170,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>167</v>
       </c>
@@ -5162,7 +5192,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>167</v>
       </c>
@@ -5228,7 +5258,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -5259,7 +5289,7 @@
       </c>
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>185</v>
       </c>
@@ -5270,7 +5300,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>185</v>
       </c>
@@ -5281,7 +5311,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>186</v>
       </c>
@@ -5292,7 +5322,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>186</v>
       </c>
@@ -5303,7 +5333,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
@@ -5325,7 +5355,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>186</v>
       </c>
@@ -5336,7 +5366,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>186</v>
       </c>
@@ -5347,7 +5377,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>186</v>
       </c>
@@ -5358,7 +5388,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>186</v>
       </c>
@@ -5369,7 +5399,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>186</v>
       </c>
@@ -5435,7 +5465,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>186</v>
       </c>
@@ -5488,7 +5518,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>197</v>
       </c>
@@ -5499,7 +5529,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>199</v>
       </c>
@@ -5546,7 +5576,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>204</v>
       </c>
@@ -5557,7 +5587,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>204</v>
       </c>
@@ -5579,7 +5609,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>204</v>
       </c>
@@ -5665,7 +5695,7 @@
       </c>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>220</v>
       </c>
@@ -5676,7 +5706,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>220</v>
       </c>
@@ -5687,7 +5717,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>223</v>
       </c>
@@ -5709,7 +5739,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>225</v>
       </c>
@@ -5731,7 +5761,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>225</v>
       </c>
@@ -5875,7 +5905,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>243</v>
       </c>
@@ -5886,7 +5916,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>243</v>
       </c>
@@ -5897,7 +5927,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>243</v>
       </c>
@@ -5944,7 +5974,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>250</v>
       </c>
@@ -5955,7 +5985,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>250</v>
       </c>
@@ -5966,7 +5996,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>250</v>
       </c>
@@ -6010,7 +6040,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>257</v>
       </c>
@@ -6021,7 +6051,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>260</v>
       </c>
@@ -6136,7 +6166,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>275</v>
       </c>
@@ -6189,7 +6219,7 @@
       </c>
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>281</v>
       </c>
@@ -6286,7 +6316,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>291</v>
       </c>
@@ -6319,7 +6349,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>291</v>
       </c>
@@ -6355,7 +6385,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>298</v>
       </c>
@@ -6366,7 +6396,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>300</v>
       </c>
@@ -6413,7 +6443,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>306</v>
       </c>
@@ -6457,7 +6487,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>313</v>
       </c>
@@ -6523,7 +6553,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>317</v>
       </c>
@@ -6556,7 +6586,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>317</v>
       </c>
@@ -6576,7 +6606,7 @@
       </c>
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>325</v>
       </c>
@@ -6642,7 +6672,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>327</v>
       </c>
@@ -6675,7 +6705,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>327</v>
       </c>
@@ -6706,7 +6736,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>331</v>
       </c>
@@ -6792,7 +6822,7 @@
       </c>
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>341</v>
       </c>
@@ -6836,7 +6866,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>345</v>
       </c>
@@ -6847,7 +6877,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>345</v>
       </c>
@@ -6880,7 +6910,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>345</v>
       </c>
@@ -6933,7 +6963,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>358</v>
       </c>
@@ -6955,7 +6985,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>358</v>
       </c>
@@ -7019,7 +7049,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>368</v>
       </c>
@@ -7030,7 +7060,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>368</v>
       </c>
@@ -7061,7 +7091,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>375</v>
       </c>
@@ -7114,7 +7144,7 @@
       </c>
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>382</v>
       </c>
@@ -7346,7 +7376,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>404</v>
       </c>
@@ -7368,7 +7398,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>404</v>
       </c>
@@ -7421,7 +7451,7 @@
       </c>
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>411</v>
       </c>
@@ -7463,7 +7493,7 @@
       </c>
       <c r="C395" s="1"/>
     </row>
-    <row r="396" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>415</v>
       </c>
@@ -7474,7 +7504,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>417</v>
       </c>
@@ -7485,7 +7515,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>419</v>
       </c>
@@ -7516,7 +7546,7 @@
       </c>
       <c r="C401" s="1"/>
     </row>
-    <row r="402" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>424</v>
       </c>
@@ -7600,7 +7630,7 @@
       </c>
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>435</v>
       </c>
@@ -7653,7 +7683,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" ht="180" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>441</v>
       </c>
@@ -7711,7 +7741,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>445</v>
       </c>
@@ -7722,7 +7752,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>445</v>
       </c>
@@ -7733,7 +7763,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>445</v>
       </c>
@@ -7744,7 +7774,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>445</v>
       </c>
@@ -7755,7 +7785,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>445</v>
       </c>
@@ -7931,7 +7961,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>455</v>
       </c>
@@ -7959,7 +7989,7 @@
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C447" s="1"/>
     </row>
-    <row r="448" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>472</v>
       </c>
@@ -7995,7 +8025,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>475</v>
       </c>
@@ -8006,7 +8036,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>475</v>
       </c>
@@ -8028,7 +8058,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>475</v>
       </c>
@@ -8136,7 +8166,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>485</v>
       </c>
@@ -8147,7 +8177,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>485</v>
       </c>
@@ -8169,7 +8199,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>485</v>
       </c>
@@ -8180,7 +8210,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>485</v>
       </c>
@@ -8191,7 +8221,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="472" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>492</v>
       </c>
@@ -8202,7 +8232,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>492</v>
       </c>
@@ -8224,7 +8254,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>495</v>
       </c>
@@ -8255,7 +8285,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>500</v>
       </c>
@@ -8299,7 +8329,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="165" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>505</v>
       </c>
@@ -8310,7 +8340,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>507</v>
       </c>
@@ -8332,7 +8362,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>507</v>
       </c>
@@ -8354,7 +8384,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>507</v>
       </c>
@@ -8376,7 +8406,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>507</v>
       </c>
@@ -8387,7 +8417,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>507</v>
       </c>
@@ -8398,7 +8428,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>507</v>
       </c>
@@ -8440,7 +8470,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="497" spans="1:3" ht="165" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>520</v>
       </c>
@@ -8451,7 +8481,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="498" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>522</v>
       </c>
@@ -8473,7 +8503,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="500" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>522</v>
       </c>
@@ -8495,7 +8525,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="502" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>522</v>
       </c>
@@ -8517,7 +8547,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="504" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>522</v>
       </c>
@@ -8528,7 +8558,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="505" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>522</v>
       </c>
@@ -8539,7 +8569,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>522</v>
       </c>
@@ -8634,7 +8664,7 @@
       </c>
       <c r="C516" s="1"/>
     </row>
-    <row r="517" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>533</v>
       </c>
@@ -8678,7 +8708,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>537</v>
       </c>
@@ -8689,7 +8719,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>537</v>
       </c>
@@ -8711,7 +8741,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>537</v>
       </c>
@@ -8722,7 +8752,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>537</v>
       </c>
@@ -8753,7 +8783,7 @@
       </c>
       <c r="C528" s="1"/>
     </row>
-    <row r="529" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>546</v>
       </c>
@@ -8786,7 +8816,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>550</v>
       </c>
@@ -8797,7 +8827,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="533" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>552</v>
       </c>
@@ -8855,7 +8885,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>556</v>
       </c>
@@ -8866,7 +8896,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>556</v>
       </c>
@@ -8888,7 +8918,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>556</v>
       </c>
@@ -8899,7 +8929,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="543" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>556</v>
       </c>
@@ -8910,7 +8940,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>560</v>
       </c>
@@ -8932,7 +8962,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="546" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>563</v>
       </c>
@@ -8943,7 +8973,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>563</v>
       </c>
@@ -8974,7 +9004,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="551" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>569</v>
       </c>
@@ -9354,7 +9384,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="591" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>604</v>
       </c>
@@ -9398,7 +9428,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="595" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>607</v>
       </c>
@@ -9451,7 +9481,7 @@
       </c>
       <c r="C600" s="1"/>
     </row>
-    <row r="601" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>615</v>
       </c>
@@ -9462,7 +9492,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="602" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>617</v>
       </c>
@@ -9473,7 +9503,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>617</v>
       </c>
@@ -9537,7 +9567,7 @@
       </c>
       <c r="C609" s="1"/>
     </row>
-    <row r="610" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>625</v>
       </c>
@@ -9548,7 +9578,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="611" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>627</v>
       </c>
@@ -9559,7 +9589,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="612" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>629</v>
       </c>
@@ -9601,7 +9631,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="617" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>636</v>
       </c>
@@ -9665,7 +9695,7 @@
       </c>
       <c r="C623" s="1"/>
     </row>
-    <row r="624" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>643</v>
       </c>
@@ -9676,7 +9706,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="625" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>645</v>
       </c>
@@ -9762,7 +9792,7 @@
       </c>
       <c r="C633" s="1"/>
     </row>
-    <row r="634" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
         <v>654</v>
       </c>
@@ -9773,7 +9803,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="635" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
         <v>656</v>
       </c>
@@ -9815,7 +9845,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="640" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
         <v>662</v>
       </c>
@@ -9848,7 +9878,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="643" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
         <v>664</v>
       </c>
@@ -9879,7 +9909,7 @@
       </c>
       <c r="C646" s="1"/>
     </row>
-    <row r="647" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
         <v>669</v>
       </c>
@@ -9890,7 +9920,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="648" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
         <v>671</v>
       </c>
@@ -9934,7 +9964,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="652" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
         <v>671</v>
       </c>
@@ -9976,6 +10006,52 @@
       </c>
       <c r="C655" s="2" t="s">
         <v>1067</v>
+      </c>
+    </row>
+    <row r="657" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B657" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="658" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B658" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C658" s="2"/>
+    </row>
+    <row r="659" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="B659" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="660" spans="2:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="B660" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C660" s="1"/>
+    </row>
+    <row r="661" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B661" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="662" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="B662" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="663" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B663" s="1" t="s">
+        <v>1084</v>
       </c>
     </row>
   </sheetData>

--- a/translations/census_household_translate_welsh.xlsx
+++ b/translations/census_household_translate_welsh.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="1089">
   <si>
     <t>Context</t>
   </si>
@@ -3291,6 +3291,9 @@
   </si>
   <si>
     <t>Nodwch gefndir Du / Affricanaidd / Caribïaidd arall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os ydych (oeddech) yn swyddog llywodraeth leol, ysgrifennwch &lt;b&gt;llywodraeth leol&lt;/b&gt; a rhowch enw'r adran o fewn yr awdurdod lleol </t>
   </si>
 </sst>
 </file>
@@ -3646,8 +3649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C663"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
-      <selection activeCell="C663" sqref="C663"/>
+    <sheetView tabSelected="1" topLeftCell="A649" workbookViewId="0">
+      <selection activeCell="C660" sqref="C660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10031,7 +10034,9 @@
       <c r="B660" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="C660" s="1"/>
+      <c r="C660" s="2" t="s">
+        <v>1088</v>
+      </c>
     </row>
     <row r="661" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B661" s="1" t="s">

--- a/translations/census_household_translate_welsh.xlsx
+++ b/translations/census_household_translate_welsh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="14440"/>
+    <workbookView xWindow="-1860" yWindow="460" windowWidth="25320" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -3047,9 +3047,6 @@
     <t xml:space="preserve">Nid oes neb yn byw yma fel eu cartref parhaol </t>
   </si>
   <si>
-    <t>&lt;strong&gt;Include&lt;/strong&gt; Problemau sy'n gysylltiedig â henaint</t>
-  </si>
-  <si>
     <t>A oes gennych broblem iechyd neu anabledd sydd wedi para neu sy’n debygol o bara am o leiaf 12 mis, ac sy’n cyfyngu ar eich gallu i wneud gweithgareddau arferol?</t>
   </si>
   <si>
@@ -3294,6 +3291,9 @@
   </si>
   <si>
     <t xml:space="preserve">Os ydych (oeddech) yn swyddog llywodraeth leol, ysgrifennwch &lt;b&gt;llywodraeth leol&lt;/b&gt; a rhowch enw'r adran o fewn yr awdurdod lleol </t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Dylech gynnwys&lt;/strong&gt; Problemau sy'n gysylltiedig â henaint</t>
   </si>
 </sst>
 </file>
@@ -3649,8 +3649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C663"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A649" workbookViewId="0">
-      <selection activeCell="C660" sqref="C660"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="B451" sqref="B451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5894,7 +5894,7 @@
         <v>242</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -6509,7 +6509,7 @@
         <v>316</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -6628,7 +6628,7 @@
         <v>316</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -6844,7 +6844,7 @@
         <v>344</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -7027,7 +7027,7 @@
         <v>365</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -7221,7 +7221,7 @@
         <v>390</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
@@ -7610,7 +7610,7 @@
         <v>431</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
@@ -8166,7 +8166,7 @@
         <v>486</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -8199,7 +8199,7 @@
         <v>489</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -8816,7 +8816,7 @@
         <v>549</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -8885,7 +8885,7 @@
         <v>486</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -8918,7 +8918,7 @@
         <v>489</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -9004,7 +9004,7 @@
         <v>568</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>1006</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -9015,7 +9015,7 @@
         <v>570</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -9026,7 +9026,7 @@
         <v>572</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -9037,7 +9037,7 @@
         <v>573</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -9068,7 +9068,7 @@
         <v>576</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -9079,7 +9079,7 @@
         <v>578</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -9090,7 +9090,7 @@
         <v>579</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -9121,7 +9121,7 @@
         <v>582</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -9143,7 +9143,7 @@
         <v>585</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
@@ -9154,7 +9154,7 @@
         <v>587</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
@@ -9165,7 +9165,7 @@
         <v>588</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
@@ -9176,7 +9176,7 @@
         <v>589</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
@@ -9187,7 +9187,7 @@
         <v>590</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
@@ -9198,7 +9198,7 @@
         <v>591</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -9209,7 +9209,7 @@
         <v>592</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
@@ -9220,7 +9220,7 @@
         <v>593</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
@@ -9240,7 +9240,7 @@
         <v>585</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
@@ -9251,7 +9251,7 @@
         <v>588</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -9262,7 +9262,7 @@
         <v>587</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -9273,7 +9273,7 @@
         <v>589</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -9284,7 +9284,7 @@
         <v>590</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -9295,7 +9295,7 @@
         <v>591</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -9306,7 +9306,7 @@
         <v>592</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -9317,7 +9317,7 @@
         <v>593</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -9337,7 +9337,7 @@
         <v>599</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -9395,7 +9395,7 @@
         <v>605</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -9406,7 +9406,7 @@
         <v>606</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -9417,7 +9417,7 @@
         <v>608</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -9428,7 +9428,7 @@
         <v>609</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -9439,7 +9439,7 @@
         <v>610</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -9450,7 +9450,7 @@
         <v>611</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -9461,7 +9461,7 @@
         <v>612</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -9472,7 +9472,7 @@
         <v>613</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -9492,7 +9492,7 @@
         <v>616</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -9503,7 +9503,7 @@
         <v>618</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -9514,7 +9514,7 @@
         <v>619</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -9536,7 +9536,7 @@
         <v>621</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -9547,7 +9547,7 @@
         <v>622</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -9558,7 +9558,7 @@
         <v>623</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -9578,7 +9578,7 @@
         <v>626</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="611" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -9589,7 +9589,7 @@
         <v>628</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="120" x14ac:dyDescent="0.2">
@@ -9600,7 +9600,7 @@
         <v>630</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
@@ -9611,7 +9611,7 @@
         <v>632</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
@@ -9631,7 +9631,7 @@
         <v>635</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="75" x14ac:dyDescent="0.2">
@@ -9653,7 +9653,7 @@
         <v>638</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
@@ -9664,7 +9664,7 @@
         <v>639</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -9675,7 +9675,7 @@
         <v>640</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -9686,7 +9686,7 @@
         <v>641</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
@@ -9706,7 +9706,7 @@
         <v>644</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="75" x14ac:dyDescent="0.2">
@@ -9728,7 +9728,7 @@
         <v>647</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
@@ -9739,7 +9739,7 @@
         <v>648</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
@@ -9750,7 +9750,7 @@
         <v>649</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
@@ -9761,7 +9761,7 @@
         <v>650</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
@@ -9772,7 +9772,7 @@
         <v>651</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
@@ -9783,7 +9783,7 @@
         <v>652</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
@@ -9803,7 +9803,7 @@
         <v>655</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="635" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -9814,7 +9814,7 @@
         <v>657</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="636" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -9845,7 +9845,7 @@
         <v>661</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="640" spans="1:3" ht="75" x14ac:dyDescent="0.2">
@@ -9856,7 +9856,7 @@
         <v>663</v>
       </c>
       <c r="C640" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
@@ -9878,7 +9878,7 @@
         <v>665</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
@@ -9889,7 +9889,7 @@
         <v>666</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
@@ -9900,7 +9900,7 @@
         <v>667</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
@@ -9920,7 +9920,7 @@
         <v>670</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
@@ -9931,7 +9931,7 @@
         <v>672</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
@@ -9942,7 +9942,7 @@
         <v>673</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
@@ -9953,7 +9953,7 @@
         <v>674</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
@@ -9964,7 +9964,7 @@
         <v>675</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
@@ -9975,7 +9975,7 @@
         <v>676</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
@@ -9986,7 +9986,7 @@
         <v>677</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
@@ -10008,55 +10008,55 @@
         <v>678</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="657" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B657" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="658" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B658" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C658" s="2"/>
     </row>
     <row r="659" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="B659" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="660" spans="2:3" ht="45" x14ac:dyDescent="0.2">
       <c r="B660" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="661" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B661" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C661" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="662" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="B662" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="663" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B663" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
   </sheetData>

--- a/translations/census_household_translate_welsh.xlsx
+++ b/translations/census_household_translate_welsh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1860" yWindow="460" windowWidth="25320" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="1088">
   <si>
     <t>Context</t>
   </si>
@@ -1676,9 +1676,6 @@
     <t>If you are (were) a civil servant, write &lt;b&gt;government&lt;/b&gt;</t>
   </si>
   <si>
-    <t>If you are (were) a local government officer, write local government officer, write &lt;b&gt;local government&lt;/b&gt; and give the name of the department within the local authority</t>
-  </si>
-  <si>
     <t>employers-business-question</t>
   </si>
   <si>
@@ -1952,9 +1949,6 @@
     <t>Any other Black / African / Caribbean background (please specify)</t>
   </si>
   <si>
-    <t>Please specify other Black / African / Caribbean / Black British background</t>
-  </si>
-  <si>
     <t>asian-ethnic-group-section</t>
   </si>
   <si>
@@ -3161,9 +3155,6 @@
     <t>Unrhyw gefndir Du / Affricanaidd / Caribïaidd arall (nodwch)</t>
   </si>
   <si>
-    <t>Nodwch gefndir Du / Affricanaidd / Caribïaidd / Du Prydeinig arall</t>
-  </si>
-  <si>
     <t>Pa un sy'n disgrifio eich grŵp ethnig neu gefndir Asiaidd / Asiaidd Prydeinig orau?</t>
   </si>
   <si>
@@ -3257,15 +3248,6 @@
     <t>Pobl sydd y tu allan i’r Deyrnas Unedig dros dro am &lt;b&gt;lai na 12 mis&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Os ydych (oeddech) yn swyddog llywodraeth leol, ysgrifennwch swyddog llywodraeth leol, ysgrifennwch &lt;b&gt;llywodraeth leol&lt;/b&gt; a rhowch enw'r adran o fewn yr awdurdod lleol </t>
-  </si>
-  <si>
-    <t>Relationships</t>
-  </si>
-  <si>
-    <t>Household Member Details</t>
-  </si>
-  <si>
     <t>Please specify other Black / African / Caribbean background</t>
   </si>
   <si>
@@ -3278,9 +3260,6 @@
     <t>You have successfully completed the ‘Visitors’ section</t>
   </si>
   <si>
-    <t>Questionnaire Completed</t>
-  </si>
-  <si>
     <t>Ymwelwyr</t>
   </si>
   <si>
@@ -3294,6 +3273,24 @@
   </si>
   <si>
     <t>&lt;strong&gt;Dylech gynnwys&lt;/strong&gt; Problemau sy'n gysylltiedig â henaint</t>
+  </si>
+  <si>
+    <t>visitors</t>
+  </si>
+  <si>
+    <t>visitors-completed-section</t>
+  </si>
+  <si>
+    <t>who-lives-here</t>
+  </si>
+  <si>
+    <t>who-lives-here-interstitial</t>
+  </si>
+  <si>
+    <t>household-and-accommodation</t>
+  </si>
+  <si>
+    <t>visitors-interstitial</t>
   </si>
 </sst>
 </file>
@@ -3647,10 +3644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C663"/>
+  <dimension ref="A1:C662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="B451" sqref="B451"/>
+    <sheetView tabSelected="1" topLeftCell="A643" workbookViewId="0">
+      <selection activeCell="C660" sqref="C660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3679,7 +3676,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3690,7 +3687,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3701,7 +3698,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.2">
@@ -3712,7 +3709,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3723,7 +3720,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3734,7 +3731,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3745,7 +3742,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3756,7 +3753,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3767,7 +3764,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3787,7 +3784,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.2">
@@ -3798,7 +3795,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3809,7 +3806,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3820,7 +3817,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3831,7 +3828,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3842,7 +3839,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3853,7 +3850,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3873,7 +3870,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -3884,7 +3881,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3895,7 +3892,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3906,7 +3903,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3917,7 +3914,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3928,7 +3925,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3942,7 +3939,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3953,7 +3950,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3964,7 +3961,7 @@
         <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3975,7 +3972,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3986,7 +3983,7 @@
         <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4000,7 +3997,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -4011,7 +4008,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -4022,7 +4019,7 @@
         <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -4033,7 +4030,7 @@
         <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -4047,7 +4044,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -4058,7 +4055,7 @@
         <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -4069,7 +4066,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -4080,7 +4077,7 @@
         <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -4094,7 +4091,7 @@
         <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -4105,7 +4102,7 @@
         <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -4116,7 +4113,7 @@
         <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -4127,7 +4124,7 @@
         <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -4141,7 +4138,7 @@
         <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -4155,7 +4152,7 @@
         <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -4169,7 +4166,7 @@
         <v>33</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -4180,7 +4177,7 @@
         <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -4191,7 +4188,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -4202,7 +4199,7 @@
         <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -4213,7 +4210,7 @@
         <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -4224,7 +4221,7 @@
         <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -4235,7 +4232,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -4255,7 +4252,7 @@
         <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -4266,7 +4263,7 @@
         <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -4277,7 +4274,7 @@
         <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -4288,7 +4285,7 @@
         <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -4299,7 +4296,7 @@
         <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -4310,7 +4307,7 @@
         <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -4321,7 +4318,7 @@
         <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -4335,7 +4332,7 @@
         <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -4346,7 +4343,7 @@
         <v>89</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -4357,7 +4354,7 @@
         <v>91</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -4368,7 +4365,7 @@
         <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -4379,7 +4376,7 @@
         <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -4393,7 +4390,7 @@
         <v>87</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -4404,7 +4401,7 @@
         <v>96</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -4415,7 +4412,7 @@
         <v>98</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -4426,7 +4423,7 @@
         <v>99</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -4437,7 +4434,7 @@
         <v>100</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -4451,7 +4448,7 @@
         <v>87</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -4462,7 +4459,7 @@
         <v>103</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -4473,7 +4470,7 @@
         <v>105</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -4484,7 +4481,7 @@
         <v>106</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -4495,7 +4492,7 @@
         <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -4515,7 +4512,7 @@
         <v>110</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -4526,7 +4523,7 @@
         <v>112</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -4537,7 +4534,7 @@
         <v>113</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -4557,7 +4554,7 @@
         <v>116</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -4568,7 +4565,7 @@
         <v>117</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="240" x14ac:dyDescent="0.2">
@@ -4579,7 +4576,7 @@
         <v>119</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -4590,7 +4587,7 @@
         <v>121</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -4601,7 +4598,7 @@
         <v>122</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -4612,7 +4609,7 @@
         <v>123</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -4623,7 +4620,7 @@
         <v>124</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -4634,7 +4631,7 @@
         <v>125</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -4654,7 +4651,7 @@
         <v>128</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -4665,7 +4662,7 @@
         <v>44</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -4676,7 +4673,7 @@
         <v>45</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -4690,7 +4687,7 @@
         <v>87</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -4701,7 +4698,7 @@
         <v>132</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -4712,7 +4709,7 @@
         <v>134</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -4723,7 +4720,7 @@
         <v>136</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -4734,7 +4731,7 @@
         <v>28</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -4748,7 +4745,7 @@
         <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="90" x14ac:dyDescent="0.2">
@@ -4759,7 +4756,7 @@
         <v>140</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -4770,7 +4767,7 @@
         <v>116</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -4781,7 +4778,7 @@
         <v>142</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -4792,7 +4789,7 @@
         <v>144</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -4803,7 +4800,7 @@
         <v>145</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -4814,7 +4811,7 @@
         <v>146</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -4825,7 +4822,7 @@
         <v>147</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -4836,7 +4833,7 @@
         <v>148</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -4847,7 +4844,7 @@
         <v>149</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -4858,7 +4855,7 @@
         <v>150</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -4869,7 +4866,7 @@
         <v>151</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -4880,7 +4877,7 @@
         <v>125</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -4900,7 +4897,7 @@
         <v>116</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -4911,7 +4908,7 @@
         <v>142</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -4922,7 +4919,7 @@
         <v>144</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -4933,7 +4930,7 @@
         <v>155</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -4944,7 +4941,7 @@
         <v>146</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -4955,7 +4952,7 @@
         <v>147</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -4966,7 +4963,7 @@
         <v>148</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -4977,7 +4974,7 @@
         <v>149</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -4988,7 +4985,7 @@
         <v>150</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -4999,7 +4996,7 @@
         <v>151</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -5010,7 +5007,7 @@
         <v>125</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -5024,7 +5021,7 @@
         <v>157</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -5038,7 +5035,7 @@
         <v>158</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -5049,7 +5046,7 @@
         <v>160</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5060,7 +5057,7 @@
         <v>161</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5071,7 +5068,7 @@
         <v>162</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5082,7 +5079,7 @@
         <v>163</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5093,7 +5090,7 @@
         <v>165</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5104,7 +5101,7 @@
         <v>166</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="60" x14ac:dyDescent="0.2">
@@ -5115,7 +5112,7 @@
         <v>168</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5126,7 +5123,7 @@
         <v>169</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5137,7 +5134,7 @@
         <v>170</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -5148,7 +5145,7 @@
         <v>171</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5159,7 +5156,7 @@
         <v>172</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5170,7 +5167,7 @@
         <v>173</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5181,7 +5178,7 @@
         <v>174</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5192,7 +5189,7 @@
         <v>175</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -5203,7 +5200,7 @@
         <v>176</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -5214,7 +5211,7 @@
         <v>177</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -5225,7 +5222,7 @@
         <v>178</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -5236,7 +5233,7 @@
         <v>179</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -5247,7 +5244,7 @@
         <v>180</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5258,7 +5255,7 @@
         <v>181</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -5269,7 +5266,7 @@
         <v>182</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -5280,7 +5277,7 @@
         <v>183</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -5300,7 +5297,7 @@
         <v>165</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5311,7 +5308,7 @@
         <v>166</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5322,7 +5319,7 @@
         <v>187</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5333,7 +5330,7 @@
         <v>188</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5344,7 +5341,7 @@
         <v>189</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5355,7 +5352,7 @@
         <v>190</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -5366,7 +5363,7 @@
         <v>191</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5377,7 +5374,7 @@
         <v>173</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5388,7 +5385,7 @@
         <v>174</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5399,7 +5396,7 @@
         <v>192</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -5410,7 +5407,7 @@
         <v>176</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -5421,7 +5418,7 @@
         <v>177</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -5432,7 +5429,7 @@
         <v>178</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -5443,7 +5440,7 @@
         <v>179</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -5454,7 +5451,7 @@
         <v>180</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5465,7 +5462,7 @@
         <v>181</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -5476,7 +5473,7 @@
         <v>182</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -5487,7 +5484,7 @@
         <v>183</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -5507,7 +5504,7 @@
         <v>195</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -5518,7 +5515,7 @@
         <v>196</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="75" x14ac:dyDescent="0.2">
@@ -5529,7 +5526,7 @@
         <v>198</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -5540,7 +5537,7 @@
         <v>200</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -5551,7 +5548,7 @@
         <v>201</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -5565,7 +5562,7 @@
         <v>203</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -5576,7 +5573,7 @@
         <v>205</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -5587,7 +5584,7 @@
         <v>206</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5598,7 +5595,7 @@
         <v>207</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5609,7 +5606,7 @@
         <v>208</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -5620,7 +5617,7 @@
         <v>209</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5631,7 +5628,7 @@
         <v>211</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -5642,7 +5639,7 @@
         <v>213</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5653,7 +5650,7 @@
         <v>215</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -5664,7 +5661,7 @@
         <v>217</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5675,7 +5672,7 @@
         <v>218</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -5686,7 +5683,7 @@
         <v>28</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -5706,7 +5703,7 @@
         <v>221</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -5717,7 +5714,7 @@
         <v>222</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5728,7 +5725,7 @@
         <v>224</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -5739,7 +5736,7 @@
         <v>226</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5750,7 +5747,7 @@
         <v>227</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -5761,7 +5758,7 @@
         <v>228</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -5772,7 +5769,7 @@
         <v>229</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -5783,7 +5780,7 @@
         <v>230</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -5803,7 +5800,7 @@
         <v>78</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -5814,7 +5811,7 @@
         <v>233</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -5825,7 +5822,7 @@
         <v>235</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -5836,7 +5833,7 @@
         <v>13</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -5847,7 +5844,7 @@
         <v>236</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -5858,7 +5855,7 @@
         <v>237</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -5872,7 +5869,7 @@
         <v>87</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5883,7 +5880,7 @@
         <v>240</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="165" x14ac:dyDescent="0.2">
@@ -5894,7 +5891,7 @@
         <v>242</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -5905,7 +5902,7 @@
         <v>244</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -5916,7 +5913,7 @@
         <v>245</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -5927,7 +5924,7 @@
         <v>246</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -5938,7 +5935,7 @@
         <v>247</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -5949,7 +5946,7 @@
         <v>248</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -5963,7 +5960,7 @@
         <v>203</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -5974,7 +5971,7 @@
         <v>205</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5985,7 +5982,7 @@
         <v>251</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5996,7 +5993,7 @@
         <v>252</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6007,7 +6004,7 @@
         <v>253</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -6018,7 +6015,7 @@
         <v>254</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6029,7 +6026,7 @@
         <v>256</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6040,7 +6037,7 @@
         <v>258</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -6051,7 +6048,7 @@
         <v>259</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -6062,7 +6059,7 @@
         <v>261</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -6082,7 +6079,7 @@
         <v>264</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -6093,7 +6090,7 @@
         <v>213</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -6104,7 +6101,7 @@
         <v>217</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -6115,7 +6112,7 @@
         <v>28</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -6135,7 +6132,7 @@
         <v>269</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -6146,7 +6143,7 @@
         <v>271</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -6166,7 +6163,7 @@
         <v>274</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="75" x14ac:dyDescent="0.2">
@@ -6177,7 +6174,7 @@
         <v>10</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -6188,7 +6185,7 @@
         <v>277</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -6199,7 +6196,7 @@
         <v>278</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -6210,7 +6207,7 @@
         <v>279</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -6230,7 +6227,7 @@
         <v>282</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -6241,7 +6238,7 @@
         <v>67</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -6252,7 +6249,7 @@
         <v>69</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -6263,7 +6260,7 @@
         <v>71</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -6274,7 +6271,7 @@
         <v>73</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -6285,7 +6282,7 @@
         <v>75</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -6305,7 +6302,7 @@
         <v>78</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -6316,7 +6313,7 @@
         <v>290</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -6327,7 +6324,7 @@
         <v>292</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -6338,7 +6335,7 @@
         <v>293</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -6349,7 +6346,7 @@
         <v>294</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -6360,7 +6357,7 @@
         <v>295</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -6371,7 +6368,7 @@
         <v>296</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -6385,7 +6382,7 @@
         <v>87</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6396,7 +6393,7 @@
         <v>299</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6407,7 +6404,7 @@
         <v>301</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6418,7 +6415,7 @@
         <v>258</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -6429,7 +6426,7 @@
         <v>304</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -6443,7 +6440,7 @@
         <v>87</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -6454,7 +6451,7 @@
         <v>307</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6465,7 +6462,7 @@
         <v>309</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6476,7 +6473,7 @@
         <v>258</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -6487,7 +6484,7 @@
         <v>312</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -6498,7 +6495,7 @@
         <v>314</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="150" x14ac:dyDescent="0.2">
@@ -6509,7 +6506,7 @@
         <v>316</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -6520,7 +6517,7 @@
         <v>78</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -6531,7 +6528,7 @@
         <v>318</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -6542,7 +6539,7 @@
         <v>319</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -6553,7 +6550,7 @@
         <v>320</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -6564,7 +6561,7 @@
         <v>321</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -6575,7 +6572,7 @@
         <v>322</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -6586,7 +6583,7 @@
         <v>124</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -6597,7 +6594,7 @@
         <v>323</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -6617,7 +6614,7 @@
         <v>314</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="150" x14ac:dyDescent="0.2">
@@ -6628,7 +6625,7 @@
         <v>316</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -6639,7 +6636,7 @@
         <v>78</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -6650,7 +6647,7 @@
         <v>319</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -6661,7 +6658,7 @@
         <v>318</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -6672,7 +6669,7 @@
         <v>320</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -6683,7 +6680,7 @@
         <v>321</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -6694,7 +6691,7 @@
         <v>322</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -6705,7 +6702,7 @@
         <v>124</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -6716,7 +6713,7 @@
         <v>323</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -6736,7 +6733,7 @@
         <v>330</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="75" x14ac:dyDescent="0.2">
@@ -6747,7 +6744,7 @@
         <v>10</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -6758,7 +6755,7 @@
         <v>333</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -6769,7 +6766,7 @@
         <v>334</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -6780,7 +6777,7 @@
         <v>335</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6791,7 +6788,7 @@
         <v>336</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6802,7 +6799,7 @@
         <v>337</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -6813,7 +6810,7 @@
         <v>339</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -6833,7 +6830,7 @@
         <v>342</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="135" x14ac:dyDescent="0.2">
@@ -6844,7 +6841,7 @@
         <v>344</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6855,7 +6852,7 @@
         <v>346</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -6866,7 +6863,7 @@
         <v>347</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -6877,7 +6874,7 @@
         <v>348</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -6888,7 +6885,7 @@
         <v>349</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6899,7 +6896,7 @@
         <v>350</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -6910,7 +6907,7 @@
         <v>351</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6921,7 +6918,7 @@
         <v>352</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -6932,7 +6929,7 @@
         <v>353</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6943,7 +6940,7 @@
         <v>354</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -6963,7 +6960,7 @@
         <v>357</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -6974,7 +6971,7 @@
         <v>359</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6985,7 +6982,7 @@
         <v>360</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6996,7 +6993,7 @@
         <v>361</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -7007,7 +7004,7 @@
         <v>362</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -7027,7 +7024,7 @@
         <v>365</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -7038,7 +7035,7 @@
         <v>367</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -7049,7 +7046,7 @@
         <v>369</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -7060,7 +7057,7 @@
         <v>370</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -7071,7 +7068,7 @@
         <v>371</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -7091,7 +7088,7 @@
         <v>374</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -7102,7 +7099,7 @@
         <v>376</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -7113,7 +7110,7 @@
         <v>378</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -7124,7 +7121,7 @@
         <v>379</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -7135,7 +7132,7 @@
         <v>380</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -7155,7 +7152,7 @@
         <v>383</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -7166,7 +7163,7 @@
         <v>67</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
@@ -7177,7 +7174,7 @@
         <v>69</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
@@ -7188,7 +7185,7 @@
         <v>71</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
@@ -7199,7 +7196,7 @@
         <v>73</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
@@ -7210,7 +7207,7 @@
         <v>75</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="330" x14ac:dyDescent="0.2">
@@ -7221,7 +7218,7 @@
         <v>390</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
@@ -7232,7 +7229,7 @@
         <v>50</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -7243,7 +7240,7 @@
         <v>393</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -7254,7 +7251,7 @@
         <v>395</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -7265,7 +7262,7 @@
         <v>396</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
@@ -7276,7 +7273,7 @@
         <v>124</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
@@ -7287,7 +7284,7 @@
         <v>397</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -7307,7 +7304,7 @@
         <v>393</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -7318,7 +7315,7 @@
         <v>319</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -7329,7 +7326,7 @@
         <v>396</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -7340,7 +7337,7 @@
         <v>124</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -7351,7 +7348,7 @@
         <v>397</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -7365,7 +7362,7 @@
         <v>87</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -7376,7 +7373,7 @@
         <v>403</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -7387,7 +7384,7 @@
         <v>405</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
@@ -7398,7 +7395,7 @@
         <v>406</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -7409,7 +7406,7 @@
         <v>407</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -7420,7 +7417,7 @@
         <v>408</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
@@ -7431,7 +7428,7 @@
         <v>409</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -7442,7 +7439,7 @@
         <v>236</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -7462,7 +7459,7 @@
         <v>412</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
@@ -7473,7 +7470,7 @@
         <v>217</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -7484,7 +7481,7 @@
         <v>28</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -7504,7 +7501,7 @@
         <v>416</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
@@ -7515,7 +7512,7 @@
         <v>418</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="60" x14ac:dyDescent="0.2">
@@ -7526,7 +7523,7 @@
         <v>420</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -7537,7 +7534,7 @@
         <v>422</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -7557,7 +7554,7 @@
         <v>425</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
@@ -7568,7 +7565,7 @@
         <v>217</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
@@ -7579,7 +7576,7 @@
         <v>28</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -7599,7 +7596,7 @@
         <v>429</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="90" x14ac:dyDescent="0.2">
@@ -7610,7 +7607,7 @@
         <v>431</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
@@ -7621,7 +7618,7 @@
         <v>433</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
@@ -7641,7 +7638,7 @@
         <v>436</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -7652,7 +7649,7 @@
         <v>217</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -7663,7 +7660,7 @@
         <v>28</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
@@ -7683,7 +7680,7 @@
         <v>440</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="180" x14ac:dyDescent="0.2">
@@ -7694,7 +7691,7 @@
         <v>442</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -7705,7 +7702,7 @@
         <v>217</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -7716,7 +7713,7 @@
         <v>28</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -7730,7 +7727,7 @@
         <v>203</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -7741,7 +7738,7 @@
         <v>446</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -7752,7 +7749,7 @@
         <v>447</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -7763,7 +7760,7 @@
         <v>448</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -7774,7 +7771,7 @@
         <v>449</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -7785,7 +7782,7 @@
         <v>450</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -7796,7 +7793,7 @@
         <v>451</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -7807,7 +7804,7 @@
         <v>453</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -7818,7 +7815,7 @@
         <v>454</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -7829,7 +7826,7 @@
         <v>456</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
@@ -7840,7 +7837,7 @@
         <v>457</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
@@ -7851,7 +7848,7 @@
         <v>458</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -7873,7 +7870,7 @@
         <v>460</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -7884,7 +7881,7 @@
         <v>461</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
@@ -7895,7 +7892,7 @@
         <v>462</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -7906,7 +7903,7 @@
         <v>463</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
@@ -7917,7 +7914,7 @@
         <v>464</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
@@ -7928,7 +7925,7 @@
         <v>465</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -7939,7 +7936,7 @@
         <v>466</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -7950,7 +7947,7 @@
         <v>467</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -7961,7 +7958,7 @@
         <v>468</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
@@ -7972,7 +7969,7 @@
         <v>469</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -7986,7 +7983,7 @@
         <v>471</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -8000,7 +7997,7 @@
         <v>473</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -8014,7 +8011,7 @@
         <v>203</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
@@ -8025,7 +8022,7 @@
         <v>205</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
@@ -8036,7 +8033,7 @@
         <v>206</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -8047,7 +8044,7 @@
         <v>207</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -8058,7 +8055,7 @@
         <v>208</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
@@ -8069,7 +8066,7 @@
         <v>209</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
@@ -8080,7 +8077,7 @@
         <v>477</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
@@ -8094,7 +8091,7 @@
         <v>479</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -8105,7 +8102,7 @@
         <v>481</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -8116,7 +8113,7 @@
         <v>52</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
@@ -8130,7 +8127,7 @@
         <v>484</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
@@ -8144,7 +8141,7 @@
         <v>203</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -8155,7 +8152,7 @@
         <v>205</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -8166,7 +8163,7 @@
         <v>486</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -8177,7 +8174,7 @@
         <v>487</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -8188,7 +8185,7 @@
         <v>488</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -8199,7 +8196,7 @@
         <v>489</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -8210,7 +8207,7 @@
         <v>490</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -8221,7 +8218,7 @@
         <v>491</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -8232,7 +8229,7 @@
         <v>493</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -8243,7 +8240,7 @@
         <v>494</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -8254,7 +8251,7 @@
         <v>217</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -8265,7 +8262,7 @@
         <v>496</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -8285,7 +8282,7 @@
         <v>499</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="105" x14ac:dyDescent="0.2">
@@ -8296,7 +8293,7 @@
         <v>501</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -8307,7 +8304,7 @@
         <v>217</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -8318,7 +8315,7 @@
         <v>28</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -8329,7 +8326,7 @@
         <v>504</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="135" x14ac:dyDescent="0.2">
@@ -8340,7 +8337,7 @@
         <v>506</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -8351,7 +8348,7 @@
         <v>508</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -8362,7 +8359,7 @@
         <v>509</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -8373,7 +8370,7 @@
         <v>510</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -8384,7 +8381,7 @@
         <v>511</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -8395,7 +8392,7 @@
         <v>512</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -8406,7 +8403,7 @@
         <v>513</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -8417,7 +8414,7 @@
         <v>514</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -8428,7 +8425,7 @@
         <v>515</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -8439,7 +8436,7 @@
         <v>516</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -8450,7 +8447,7 @@
         <v>517</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -8470,7 +8467,7 @@
         <v>504</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="135" x14ac:dyDescent="0.2">
@@ -8481,7 +8478,7 @@
         <v>521</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -8492,7 +8489,7 @@
         <v>523</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -8503,7 +8500,7 @@
         <v>509</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -8514,7 +8511,7 @@
         <v>510</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -8525,7 +8522,7 @@
         <v>511</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -8536,7 +8533,7 @@
         <v>512</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -8547,7 +8544,7 @@
         <v>513</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -8558,7 +8555,7 @@
         <v>514</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -8569,7 +8566,7 @@
         <v>515</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
@@ -8580,7 +8577,7 @@
         <v>516</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -8591,7 +8588,7 @@
         <v>517</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -8611,7 +8608,7 @@
         <v>526</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
@@ -8622,7 +8619,7 @@
         <v>528</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -8633,7 +8630,7 @@
         <v>529</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -8644,7 +8641,7 @@
         <v>530</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -8655,7 +8652,7 @@
         <v>531</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -8675,7 +8672,7 @@
         <v>534</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -8686,7 +8683,7 @@
         <v>78</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -8697,7 +8694,7 @@
         <v>536</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -8708,7 +8705,7 @@
         <v>538</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -8719,7 +8716,7 @@
         <v>539</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -8730,7 +8727,7 @@
         <v>540</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -8741,7 +8738,7 @@
         <v>541</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -8752,7 +8749,7 @@
         <v>542</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -8763,7 +8760,7 @@
         <v>543</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -8774,7 +8771,7 @@
         <v>544</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -8794,7 +8791,7 @@
         <v>547</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="530" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -8805,51 +8802,51 @@
         <v>548</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>546</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>549</v>
+        <v>1074</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B532" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B532" s="1" t="s">
-        <v>551</v>
-      </c>
       <c r="C532" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="533" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B533" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B533" s="1" t="s">
-        <v>553</v>
-      </c>
       <c r="C533" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>433</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -8857,134 +8854,134 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B537" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B537" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="C537" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>486</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>488</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>490</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B544" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B544" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="C544" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B546" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B546" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="C546" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -8992,63 +8989,63 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C549" s="1"/>
     </row>
     <row r="550" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B550" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B550" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="C550" s="2" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B551" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B551" s="1" t="s">
-        <v>570</v>
-      </c>
       <c r="C551" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B552" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B552" s="1" t="s">
-        <v>572</v>
-      </c>
       <c r="C552" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -9056,41 +9053,41 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C556" s="1"/>
     </row>
     <row r="557" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B557" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B557" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="C557" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B558" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B558" s="1" t="s">
-        <v>578</v>
-      </c>
       <c r="C558" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -9098,129 +9095,129 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C561" s="1"/>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B563" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B563" s="1" t="s">
-        <v>582</v>
-      </c>
       <c r="C563" s="2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B565" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B565" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="C565" s="2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B566" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B566" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="C566" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
@@ -9228,96 +9225,96 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C574" s="1"/>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -9325,52 +9322,52 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C584" s="1"/>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B585" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B585" s="1" t="s">
-        <v>599</v>
-      </c>
       <c r="C585" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -9378,101 +9375,101 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="591" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B591" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B591" s="1" t="s">
-        <v>605</v>
-      </c>
       <c r="C591" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B593" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B593" s="1" t="s">
-        <v>608</v>
-      </c>
       <c r="C593" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -9480,85 +9477,85 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C600" s="1"/>
     </row>
     <row r="601" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B601" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B601" s="1" t="s">
-        <v>616</v>
-      </c>
       <c r="C601" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B602" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B602" s="1" t="s">
-        <v>618</v>
-      </c>
       <c r="C602" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B604" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B605" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B605" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="C605" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -9566,52 +9563,52 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C609" s="1"/>
     </row>
     <row r="610" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B610" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B610" s="1" t="s">
-        <v>626</v>
-      </c>
       <c r="C610" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="611" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B611" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B611" s="1" t="s">
-        <v>628</v>
-      </c>
       <c r="C611" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B612" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B612" s="1" t="s">
-        <v>630</v>
-      </c>
       <c r="C612" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B613" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B613" s="1" t="s">
-        <v>632</v>
-      </c>
       <c r="C613" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
@@ -9619,74 +9616,74 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C615" s="1"/>
     </row>
     <row r="616" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B616" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B616" s="1" t="s">
-        <v>635</v>
-      </c>
       <c r="C616" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B617" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B618" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B618" s="1" t="s">
-        <v>638</v>
-      </c>
       <c r="C618" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>641</v>
+        <v>1073</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>1044</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
@@ -9694,96 +9691,96 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C623" s="1"/>
     </row>
     <row r="624" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B625" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B627" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B627" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="C627" s="2" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
@@ -9791,41 +9788,41 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C633" s="1"/>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="635" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="636" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
@@ -9833,74 +9830,74 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C638" s="1"/>
     </row>
     <row r="639" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="640" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C640" s="2" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B641" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C641" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B643" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B643" s="1" t="s">
-        <v>666</v>
-      </c>
       <c r="C643" s="2" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
@@ -9908,155 +9905,173 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C646" s="1"/>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B649" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B649" s="1" t="s">
-        <v>673</v>
-      </c>
       <c r="C649" s="2" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C654" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="657" spans="2:3" x14ac:dyDescent="0.2">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A657" s="1" t="s">
+        <v>1082</v>
+      </c>
       <c r="B657" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C657" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="658" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A658" s="1" t="s">
+        <v>1083</v>
+      </c>
       <c r="B658" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C658" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="C658" s="2"/>
-    </row>
-    <row r="659" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A659" s="1" t="s">
+        <v>1084</v>
+      </c>
       <c r="B659" s="1" t="s">
-        <v>1079</v>
+        <v>203</v>
       </c>
       <c r="C659" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A660" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A661" s="1" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="660" spans="2:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="B660" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C660" s="2" t="s">
+      <c r="B661" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C661" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A662" s="1" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="661" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B661" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C661" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="662" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="B662" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C662" s="2" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="663" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B663" s="1" t="s">
-        <v>1083</v>
+        <v>1075</v>
+      </c>
+      <c r="C662" t="s">
+        <v>1077</v>
       </c>
     </row>
   </sheetData>
